--- a/tus_datos.xlsx
+++ b/tus_datos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\djj4y4\criticos-app\criticos-backend\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A783D530-C5E7-482C-BBDF-DE1594BBE72A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E5486E5-4275-48B7-89D6-51800D1193E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{C27D6E3C-0057-4E28-B824-77E60445F77A}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2395" uniqueCount="1020">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2698" uniqueCount="1298">
   <si>
     <t>LCODE</t>
   </si>
@@ -3096,6 +3096,840 @@
   </si>
   <si>
     <t>12p</t>
+  </si>
+  <si>
+    <t>07/15/25 11:05</t>
+  </si>
+  <si>
+    <t>07/15/25 07:39</t>
+  </si>
+  <si>
+    <t>07/15/25 00:06</t>
+  </si>
+  <si>
+    <t>07/14/25 16:16</t>
+  </si>
+  <si>
+    <t>07/14/25 14:22</t>
+  </si>
+  <si>
+    <t>07/14/25 13:53</t>
+  </si>
+  <si>
+    <t>07/14/25 07:26</t>
+  </si>
+  <si>
+    <t>07/14/25 07:25</t>
+  </si>
+  <si>
+    <t>07/14/25 07:07</t>
+  </si>
+  <si>
+    <t>07/14/25 07:06</t>
+  </si>
+  <si>
+    <t>07/11/25 11:12</t>
+  </si>
+  <si>
+    <t>07/11/25 10:11</t>
+  </si>
+  <si>
+    <t>06/27/25 08:32</t>
+  </si>
+  <si>
+    <t>06/27/25 07:47</t>
+  </si>
+  <si>
+    <t>06/25/25 11:20</t>
+  </si>
+  <si>
+    <t>06/24/25 11:27</t>
+  </si>
+  <si>
+    <t>06/24/25 08:18</t>
+  </si>
+  <si>
+    <t>06/23/25 11:45</t>
+  </si>
+  <si>
+    <t>06/20/25 10:31</t>
+  </si>
+  <si>
+    <t>07/15/25 14:21</t>
+  </si>
+  <si>
+    <t>07/15/25 16:09</t>
+  </si>
+  <si>
+    <t>07/15/25 18:16</t>
+  </si>
+  <si>
+    <t>07/15/25 18:22</t>
+  </si>
+  <si>
+    <t>07/15/25 23:04</t>
+  </si>
+  <si>
+    <t>07/15/25 23:38</t>
+  </si>
+  <si>
+    <t>07/16/25 08:56</t>
+  </si>
+  <si>
+    <t>07/16/25 09:25</t>
+  </si>
+  <si>
+    <t>07/16/25 20:12</t>
+  </si>
+  <si>
+    <t>07/16/25 20:14</t>
+  </si>
+  <si>
+    <t>07/16/25 20:20</t>
+  </si>
+  <si>
+    <t>07/16/25 20:21</t>
+  </si>
+  <si>
+    <t>07/17/25 07:09</t>
+  </si>
+  <si>
+    <t>07/17/25 07:10</t>
+  </si>
+  <si>
+    <t>07/17/25 07:12</t>
+  </si>
+  <si>
+    <t>07/17/25 13:07</t>
+  </si>
+  <si>
+    <t>07/17/25 13:23</t>
+  </si>
+  <si>
+    <t>07/17/25 13:48</t>
+  </si>
+  <si>
+    <t>07/17/25 19:13</t>
+  </si>
+  <si>
+    <t>07/18/25 07:11</t>
+  </si>
+  <si>
+    <t>07/18/25 07:12</t>
+  </si>
+  <si>
+    <t>07/18/25 07:16</t>
+  </si>
+  <si>
+    <t>07/18/25 07:21</t>
+  </si>
+  <si>
+    <t>07/18/25 07:22</t>
+  </si>
+  <si>
+    <t>07/18/25 11:03</t>
+  </si>
+  <si>
+    <t>07/18/25 11:05</t>
+  </si>
+  <si>
+    <t>07/18/25 12:11</t>
+  </si>
+  <si>
+    <t>07/18/25 15:17</t>
+  </si>
+  <si>
+    <t>07/18/25 15:22</t>
+  </si>
+  <si>
+    <t>07/21/25 07:47</t>
+  </si>
+  <si>
+    <t>07/21/25 09:22</t>
+  </si>
+  <si>
+    <t>07/21/25 09:35</t>
+  </si>
+  <si>
+    <t>07/21/25 12:27</t>
+  </si>
+  <si>
+    <t>07/21/25 13:09</t>
+  </si>
+  <si>
+    <t>07/21/25 15:23</t>
+  </si>
+  <si>
+    <t>07/21/25 17:50</t>
+  </si>
+  <si>
+    <t>07/21/25 19:44</t>
+  </si>
+  <si>
+    <t>07/21/25 19:47</t>
+  </si>
+  <si>
+    <t>07/21/25 20:07</t>
+  </si>
+  <si>
+    <t>07/21/25 20:08</t>
+  </si>
+  <si>
+    <t>07/21/25 22:07</t>
+  </si>
+  <si>
+    <t>07/21/25 23:12</t>
+  </si>
+  <si>
+    <t>07/22/25 07:14</t>
+  </si>
+  <si>
+    <t>07/22/25 07:16</t>
+  </si>
+  <si>
+    <t>07/22/25 08:08</t>
+  </si>
+  <si>
+    <t>07/22/25 08:09</t>
+  </si>
+  <si>
+    <t>07/22/25 08:11</t>
+  </si>
+  <si>
+    <t>07/22/25 08:14</t>
+  </si>
+  <si>
+    <t>07/22/25 08:20</t>
+  </si>
+  <si>
+    <t>07/22/25 08:24</t>
+  </si>
+  <si>
+    <t>07/22/25 08:27</t>
+  </si>
+  <si>
+    <t>07/22/25 08:47</t>
+  </si>
+  <si>
+    <t>07/22/25 08:58</t>
+  </si>
+  <si>
+    <t>07/22/25 09:00</t>
+  </si>
+  <si>
+    <t>07/22/25 10:34</t>
+  </si>
+  <si>
+    <t>07/22/25 11:58</t>
+  </si>
+  <si>
+    <t>07/22/25 12:17</t>
+  </si>
+  <si>
+    <t>07/22/25 12:18</t>
+  </si>
+  <si>
+    <t>07/22/25 12:20</t>
+  </si>
+  <si>
+    <t>07/22/25 12:21</t>
+  </si>
+  <si>
+    <t>07/22/25 13:50</t>
+  </si>
+  <si>
+    <t>07/22/25 14:12</t>
+  </si>
+  <si>
+    <t>07/22/25 14:13</t>
+  </si>
+  <si>
+    <t>07/22/25 14:19</t>
+  </si>
+  <si>
+    <t>07/22/25 15:40</t>
+  </si>
+  <si>
+    <t>07/22/25 15:42</t>
+  </si>
+  <si>
+    <t>07/22/25 17:24</t>
+  </si>
+  <si>
+    <t>07/22/25 17:34</t>
+  </si>
+  <si>
+    <t>07/22/25 19:46</t>
+  </si>
+  <si>
+    <t>07/23/25 07:07</t>
+  </si>
+  <si>
+    <t>07/23/25 07:08</t>
+  </si>
+  <si>
+    <t>07/23/25 07:09</t>
+  </si>
+  <si>
+    <t>07/23/25 07:14</t>
+  </si>
+  <si>
+    <t>07/23/25 07:15</t>
+  </si>
+  <si>
+    <t>07/23/25 07:16</t>
+  </si>
+  <si>
+    <t>07/23/25 07:17</t>
+  </si>
+  <si>
+    <t>07/23/25 07:21</t>
+  </si>
+  <si>
+    <t>07/23/25 08:07</t>
+  </si>
+  <si>
+    <t>07/23/25 08:19</t>
+  </si>
+  <si>
+    <t>07/23/25 08:26</t>
+  </si>
+  <si>
+    <t>07/23/25 08:27</t>
+  </si>
+  <si>
+    <t>07/23/25 08:52</t>
+  </si>
+  <si>
+    <t>07/23/25 09:14</t>
+  </si>
+  <si>
+    <t>07/23/25 09:20</t>
+  </si>
+  <si>
+    <t>07/23/25 09:21</t>
+  </si>
+  <si>
+    <t>07/23/25 09:24</t>
+  </si>
+  <si>
+    <t>07/23/25 09:33</t>
+  </si>
+  <si>
+    <t>07/23/25 09:59</t>
+  </si>
+  <si>
+    <t>07/23/25 10:01</t>
+  </si>
+  <si>
+    <t>07/23/25 10:35</t>
+  </si>
+  <si>
+    <t>07/23/25 10:36</t>
+  </si>
+  <si>
+    <t>07/23/25 10:43</t>
+  </si>
+  <si>
+    <t>07/23/25 10:44</t>
+  </si>
+  <si>
+    <t>07/23/25 10:48</t>
+  </si>
+  <si>
+    <t>07/23/25 11:12</t>
+  </si>
+  <si>
+    <t>07/23/25 11:40</t>
+  </si>
+  <si>
+    <t>07/23/25 11:42</t>
+  </si>
+  <si>
+    <t>07/23/25 11:43</t>
+  </si>
+  <si>
+    <t>07/23/25 11:54</t>
+  </si>
+  <si>
+    <t>07/23/25 12:06</t>
+  </si>
+  <si>
+    <t>07/23/25 12:09</t>
+  </si>
+  <si>
+    <t>07/23/25 12:10</t>
+  </si>
+  <si>
+    <t>07/23/25 12:18</t>
+  </si>
+  <si>
+    <t>07/23/25 12:31</t>
+  </si>
+  <si>
+    <t>07/23/25 12:51</t>
+  </si>
+  <si>
+    <t>07/23/25 13:09</t>
+  </si>
+  <si>
+    <t>07/23/25 13:19</t>
+  </si>
+  <si>
+    <t>07/23/25 13:24</t>
+  </si>
+  <si>
+    <t>07/23/25 13:56</t>
+  </si>
+  <si>
+    <t>07/23/25 13:58</t>
+  </si>
+  <si>
+    <t>07/23/25 15:28</t>
+  </si>
+  <si>
+    <t>07/23/25 15:37</t>
+  </si>
+  <si>
+    <t>07/23/25 15:50</t>
+  </si>
+  <si>
+    <t>07/23/25 15:51</t>
+  </si>
+  <si>
+    <t>07/23/25 15:57</t>
+  </si>
+  <si>
+    <t>07/23/25 17:55</t>
+  </si>
+  <si>
+    <t>07/23/25 20:24</t>
+  </si>
+  <si>
+    <t>07/23/25 22:31</t>
+  </si>
+  <si>
+    <t>07/24/25 07:16</t>
+  </si>
+  <si>
+    <t>07/24/25 07:17</t>
+  </si>
+  <si>
+    <t>07/24/25 07:25</t>
+  </si>
+  <si>
+    <t>07/24/25 07:26</t>
+  </si>
+  <si>
+    <t>07/24/25 07:27</t>
+  </si>
+  <si>
+    <t>07/24/25 07:32</t>
+  </si>
+  <si>
+    <t>07/24/25 07:35</t>
+  </si>
+  <si>
+    <t>07/24/25 08:22</t>
+  </si>
+  <si>
+    <t>07/24/25 08:23</t>
+  </si>
+  <si>
+    <t>07/24/25 08:33</t>
+  </si>
+  <si>
+    <t>07/24/25 08:57</t>
+  </si>
+  <si>
+    <t>07/24/25 09:04</t>
+  </si>
+  <si>
+    <t>07/24/25 09:19</t>
+  </si>
+  <si>
+    <t>07/24/25 09:26</t>
+  </si>
+  <si>
+    <t>07/24/25 09:40</t>
+  </si>
+  <si>
+    <t>07/24/25 09:43</t>
+  </si>
+  <si>
+    <t>07/24/25 09:45</t>
+  </si>
+  <si>
+    <t>07/24/25 09:58</t>
+  </si>
+  <si>
+    <t>07/24/25 09:59</t>
+  </si>
+  <si>
+    <t>07/24/25 10:16</t>
+  </si>
+  <si>
+    <t>07/24/25 10:26</t>
+  </si>
+  <si>
+    <t>07/24/25 10:32</t>
+  </si>
+  <si>
+    <t>07/24/25 11:13</t>
+  </si>
+  <si>
+    <t>07/24/25 11:21</t>
+  </si>
+  <si>
+    <t>07/24/25 11:22</t>
+  </si>
+  <si>
+    <t>07/24/25 11:23</t>
+  </si>
+  <si>
+    <t>07/24/25 11:25</t>
+  </si>
+  <si>
+    <t>07/24/25 11:45</t>
+  </si>
+  <si>
+    <t>07/24/25 12:03</t>
+  </si>
+  <si>
+    <t>07/24/25 12:21</t>
+  </si>
+  <si>
+    <t>07/24/25 12:31</t>
+  </si>
+  <si>
+    <t>07/24/25 12:35</t>
+  </si>
+  <si>
+    <t>07/24/25 13:10</t>
+  </si>
+  <si>
+    <t>07/24/25 13:15</t>
+  </si>
+  <si>
+    <t>07/24/25 13:24</t>
+  </si>
+  <si>
+    <t>07/24/25 13:41</t>
+  </si>
+  <si>
+    <t>07/24/25 13:49</t>
+  </si>
+  <si>
+    <t>07/24/25 13:52</t>
+  </si>
+  <si>
+    <t>07/24/25 13:53</t>
+  </si>
+  <si>
+    <t>07/24/25 13:55</t>
+  </si>
+  <si>
+    <t>07/24/25 13:57</t>
+  </si>
+  <si>
+    <t>07/24/25 14:23</t>
+  </si>
+  <si>
+    <t>07/24/25 14:44</t>
+  </si>
+  <si>
+    <t>07/24/25 15:25</t>
+  </si>
+  <si>
+    <t>07/24/25 15:28</t>
+  </si>
+  <si>
+    <t>07/24/25 15:35</t>
+  </si>
+  <si>
+    <t>07/24/25 15:46</t>
+  </si>
+  <si>
+    <t>07/24/25 15:47</t>
+  </si>
+  <si>
+    <t>07/24/25 15:59</t>
+  </si>
+  <si>
+    <t>07/24/25 16:59</t>
+  </si>
+  <si>
+    <t>07/24/25 18:03</t>
+  </si>
+  <si>
+    <t>07/24/25 18:19</t>
+  </si>
+  <si>
+    <t>07/24/25 18:22</t>
+  </si>
+  <si>
+    <t>07/24/25 18:24</t>
+  </si>
+  <si>
+    <t>07/24/25 18:39</t>
+  </si>
+  <si>
+    <t>07/24/25 19:01</t>
+  </si>
+  <si>
+    <t>07/24/25 20:42</t>
+  </si>
+  <si>
+    <t>07/24/25 20:44</t>
+  </si>
+  <si>
+    <t>07/24/25 20:45</t>
+  </si>
+  <si>
+    <t>07/24/25 20:46</t>
+  </si>
+  <si>
+    <t>07/24/25 20:51</t>
+  </si>
+  <si>
+    <t>07/24/25 20:52</t>
+  </si>
+  <si>
+    <t>07/24/25 20:53</t>
+  </si>
+  <si>
+    <t>07/24/25 20:56</t>
+  </si>
+  <si>
+    <t>07/24/25 23:07</t>
+  </si>
+  <si>
+    <t>07/24/25 23:57</t>
+  </si>
+  <si>
+    <t>07/25/25 07:06</t>
+  </si>
+  <si>
+    <t>07/25/25 07:07</t>
+  </si>
+  <si>
+    <t>07/25/25 07:08</t>
+  </si>
+  <si>
+    <t>07/25/25 07:10</t>
+  </si>
+  <si>
+    <t>07/25/25 07:12</t>
+  </si>
+  <si>
+    <t>07/25/25 07:13</t>
+  </si>
+  <si>
+    <t>07/25/25 07:14</t>
+  </si>
+  <si>
+    <t>07/25/25 07:18</t>
+  </si>
+  <si>
+    <t>07/25/25 07:33</t>
+  </si>
+  <si>
+    <t>07/25/25 07:44</t>
+  </si>
+  <si>
+    <t>07/25/25 07:47</t>
+  </si>
+  <si>
+    <t>07/25/25 07:58</t>
+  </si>
+  <si>
+    <t>07/25/25 08:01</t>
+  </si>
+  <si>
+    <t>07/25/25 08:02</t>
+  </si>
+  <si>
+    <t>07/25/25 08:09</t>
+  </si>
+  <si>
+    <t>07/25/25 08:17</t>
+  </si>
+  <si>
+    <t>07/25/25 08:20</t>
+  </si>
+  <si>
+    <t>07/25/25 08:23</t>
+  </si>
+  <si>
+    <t>07/25/25 08:24</t>
+  </si>
+  <si>
+    <t>07/25/25 08:27</t>
+  </si>
+  <si>
+    <t>07/25/25 08:28</t>
+  </si>
+  <si>
+    <t>07/25/25 08:29</t>
+  </si>
+  <si>
+    <t>07/25/25 08:33</t>
+  </si>
+  <si>
+    <t>07/25/25 09:19</t>
+  </si>
+  <si>
+    <t>07/25/25 09:22</t>
+  </si>
+  <si>
+    <t>07/25/25 09:40</t>
+  </si>
+  <si>
+    <t>07/25/25 09:48</t>
+  </si>
+  <si>
+    <t>07/25/25 09:54</t>
+  </si>
+  <si>
+    <t>07/25/25 09:56</t>
+  </si>
+  <si>
+    <t>07/25/25 10:09</t>
+  </si>
+  <si>
+    <t>07/25/25 10:15</t>
+  </si>
+  <si>
+    <t>07/25/25 10:39</t>
+  </si>
+  <si>
+    <t>07/25/25 11:15</t>
+  </si>
+  <si>
+    <t>07/25/25 11:24</t>
+  </si>
+  <si>
+    <t>07/25/25 11:26</t>
+  </si>
+  <si>
+    <t>07/25/25 11:28</t>
+  </si>
+  <si>
+    <t>07/25/25 11:31</t>
+  </si>
+  <si>
+    <t>07/25/25 11:33</t>
+  </si>
+  <si>
+    <t>07/25/25 11:35</t>
+  </si>
+  <si>
+    <t>07/25/25 11:43</t>
+  </si>
+  <si>
+    <t>07/25/25 11:44</t>
+  </si>
+  <si>
+    <t>07/25/25 11:45</t>
+  </si>
+  <si>
+    <t>07/25/25 11:50</t>
+  </si>
+  <si>
+    <t>07/25/25 12:07</t>
+  </si>
+  <si>
+    <t>07/25/25 12:12</t>
+  </si>
+  <si>
+    <t>07/25/25 12:22</t>
+  </si>
+  <si>
+    <t>07/25/25 12:23</t>
+  </si>
+  <si>
+    <t>07/25/25 12:43</t>
+  </si>
+  <si>
+    <t>07/25/25 13:18</t>
+  </si>
+  <si>
+    <t>07/25/25 13:29</t>
+  </si>
+  <si>
+    <t>07/25/25 13:31</t>
+  </si>
+  <si>
+    <t>07/25/25 13:45</t>
+  </si>
+  <si>
+    <t>07/25/25 14:22</t>
+  </si>
+  <si>
+    <t>07/25/25 14:27</t>
+  </si>
+  <si>
+    <t>07/25/25 14:28</t>
+  </si>
+  <si>
+    <t>07/25/25 14:30</t>
+  </si>
+  <si>
+    <t>07/25/25 14:35</t>
+  </si>
+  <si>
+    <t>07/25/25 14:36</t>
+  </si>
+  <si>
+    <t>07/25/25 16:02</t>
+  </si>
+  <si>
+    <t>07/25/25 16:03</t>
+  </si>
+  <si>
+    <t>07/25/25 17:59</t>
+  </si>
+  <si>
+    <t>07/25/25 18:37</t>
+  </si>
+  <si>
+    <t>07/25/25 18:39</t>
+  </si>
+  <si>
+    <t>07/25/25 18:43</t>
+  </si>
+  <si>
+    <t>07/25/25 18:47</t>
+  </si>
+  <si>
+    <t>07/25/25 18:50</t>
+  </si>
+  <si>
+    <t>07/25/25 19:31</t>
+  </si>
+  <si>
+    <t>07/25/25 19:32</t>
+  </si>
+  <si>
+    <t>07/25/25 21:54</t>
+  </si>
+  <si>
+    <t>07/25/25 22:23</t>
+  </si>
+  <si>
+    <t>07/25/25 22:25</t>
+  </si>
+  <si>
+    <t>07/25/25 22:57</t>
+  </si>
+  <si>
+    <t>07/26/25 00:41</t>
+  </si>
+  <si>
+    <t>07/26/25 00:43</t>
+  </si>
+  <si>
+    <t>07/26/25 00:44</t>
   </si>
 </sst>
 </file>
@@ -3103,7 +3937,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="166" formatCode="m/d/yy\ h:mm;@"/>
+    <numFmt numFmtId="164" formatCode="m/d/yy\ h:mm;@"/>
   </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
@@ -3137,7 +3971,7 @@
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3472,10 +4306,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE6EE581-BD72-4BC0-B061-EE16CB789B7E}">
-  <dimension ref="A1:M304"/>
+  <dimension ref="A1:N304"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M2" sqref="M2"/>
+      <selection activeCell="Q10" sqref="Q10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3491,11 +4325,12 @@
     <col min="9" max="9" width="8.42578125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="8.140625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="17.7109375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="15.5703125" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>298</v>
       </c>
@@ -3536,7 +4371,7 @@
         <v>989</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>307</v>
       </c>
@@ -3570,14 +4405,15 @@
       <c r="K2" s="1">
         <v>0</v>
       </c>
-      <c r="L2" s="2">
-        <v>45853.461805555555</v>
+      <c r="L2" t="s">
+        <v>1020</v>
       </c>
       <c r="M2" s="1" t="s">
         <v>990</v>
       </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N2" s="2"/>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>310</v>
       </c>
@@ -3611,14 +4447,14 @@
       <c r="K3" s="1">
         <v>0</v>
       </c>
-      <c r="L3" s="2">
-        <v>45853.318749999999</v>
+      <c r="L3" t="s">
+        <v>1021</v>
       </c>
       <c r="M3" s="1" t="s">
         <v>991</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>992</v>
       </c>
@@ -3652,14 +4488,14 @@
       <c r="K4" s="1">
         <v>40</v>
       </c>
-      <c r="L4" s="2">
-        <v>45853.004166666666</v>
+      <c r="L4" t="s">
+        <v>1022</v>
       </c>
       <c r="M4" s="1" t="s">
         <v>990</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>993</v>
       </c>
@@ -3693,14 +4529,14 @@
       <c r="K5" s="1">
         <v>0</v>
       </c>
-      <c r="L5" s="2">
-        <v>45852.677777777775</v>
+      <c r="L5" t="s">
+        <v>1023</v>
       </c>
       <c r="M5" s="1" t="s">
         <v>994</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>993</v>
       </c>
@@ -3734,14 +4570,14 @@
       <c r="K6" s="1">
         <v>50</v>
       </c>
-      <c r="L6" s="2">
-        <v>45852.598611111112</v>
+      <c r="L6" t="s">
+        <v>1024</v>
       </c>
       <c r="M6" s="1" t="s">
         <v>990</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>995</v>
       </c>
@@ -3775,14 +4611,14 @@
       <c r="K7" s="1">
         <v>35</v>
       </c>
-      <c r="L7" s="2">
-        <v>45852.578472222223</v>
+      <c r="L7" t="s">
+        <v>1025</v>
       </c>
       <c r="M7" s="1" t="s">
         <v>990</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>996</v>
       </c>
@@ -3816,14 +4652,14 @@
       <c r="K8" s="1">
         <v>0</v>
       </c>
-      <c r="L8" s="2">
-        <v>45852.30972222222</v>
+      <c r="L8" t="s">
+        <v>1026</v>
       </c>
       <c r="M8" s="1" t="s">
         <v>994</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>996</v>
       </c>
@@ -3857,14 +4693,14 @@
       <c r="K9" s="1">
         <v>0</v>
       </c>
-      <c r="L9" s="2">
-        <v>45852.30972222222</v>
+      <c r="L9" t="s">
+        <v>1026</v>
       </c>
       <c r="M9" s="1" t="s">
         <v>994</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>306</v>
       </c>
@@ -3898,14 +4734,14 @@
       <c r="K10" s="1">
         <v>0</v>
       </c>
-      <c r="L10" s="2">
-        <v>45852.30972222222</v>
+      <c r="L10" t="s">
+        <v>1026</v>
       </c>
       <c r="M10" s="1" t="s">
         <v>994</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>306</v>
       </c>
@@ -3939,14 +4775,14 @@
       <c r="K11" s="1">
         <v>0</v>
       </c>
-      <c r="L11" s="2">
-        <v>45852.309027777781</v>
+      <c r="L11" t="s">
+        <v>1027</v>
       </c>
       <c r="M11" s="1" t="s">
         <v>994</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>306</v>
       </c>
@@ -3980,14 +4816,14 @@
       <c r="K12" s="1">
         <v>40</v>
       </c>
-      <c r="L12" s="2">
-        <v>45852.296527777777</v>
+      <c r="L12" t="s">
+        <v>1028</v>
       </c>
       <c r="M12" s="1" t="s">
         <v>994</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>306</v>
       </c>
@@ -4021,14 +4857,14 @@
       <c r="K13" s="1">
         <v>50</v>
       </c>
-      <c r="L13" s="2">
-        <v>45852.29583333333</v>
+      <c r="L13" t="s">
+        <v>1029</v>
       </c>
       <c r="M13" s="1" t="s">
         <v>994</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>996</v>
       </c>
@@ -4062,14 +4898,14 @@
       <c r="K14" s="1">
         <v>100</v>
       </c>
-      <c r="L14" s="2">
-        <v>45849.466666666667</v>
+      <c r="L14" t="s">
+        <v>1030</v>
       </c>
       <c r="M14" s="1" t="s">
         <v>994</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>308</v>
       </c>
@@ -4103,14 +4939,14 @@
       <c r="K15" s="1">
         <v>60</v>
       </c>
-      <c r="L15" s="2">
-        <v>45849.424305555556</v>
+      <c r="L15" t="s">
+        <v>1031</v>
       </c>
       <c r="M15" s="1" t="s">
         <v>994</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>307</v>
       </c>
@@ -4144,8 +4980,8 @@
       <c r="K16" s="1">
         <v>50</v>
       </c>
-      <c r="L16" s="2">
-        <v>45835.355555555558</v>
+      <c r="L16" t="s">
+        <v>1032</v>
       </c>
       <c r="M16" s="1" t="s">
         <v>994</v>
@@ -4185,8 +5021,8 @@
       <c r="K17" s="1">
         <v>75</v>
       </c>
-      <c r="L17" s="2">
-        <v>45835.324305555558</v>
+      <c r="L17" t="s">
+        <v>1033</v>
       </c>
       <c r="M17" s="1" t="s">
         <v>994</v>
@@ -4226,8 +5062,8 @@
       <c r="K18" s="1">
         <v>30</v>
       </c>
-      <c r="L18" s="2">
-        <v>45833.472222222219</v>
+      <c r="L18" t="s">
+        <v>1034</v>
       </c>
       <c r="M18" s="1" t="s">
         <v>994</v>
@@ -4267,8 +5103,8 @@
       <c r="K19" s="1">
         <v>50</v>
       </c>
-      <c r="L19" s="2">
-        <v>45832.477083333331</v>
+      <c r="L19" t="s">
+        <v>1035</v>
       </c>
       <c r="M19" s="1" t="s">
         <v>990</v>
@@ -4308,8 +5144,8 @@
       <c r="K20" s="1">
         <v>40</v>
       </c>
-      <c r="L20" s="2">
-        <v>45832.345833333333</v>
+      <c r="L20" t="s">
+        <v>1036</v>
       </c>
       <c r="M20" s="1" t="s">
         <v>994</v>
@@ -4349,8 +5185,8 @@
       <c r="K21" s="1">
         <v>100</v>
       </c>
-      <c r="L21" s="2">
-        <v>45831.489583333336</v>
+      <c r="L21" t="s">
+        <v>1037</v>
       </c>
       <c r="M21" s="1" t="s">
         <v>994</v>
@@ -4390,8 +5226,8 @@
       <c r="K22" s="1">
         <v>80</v>
       </c>
-      <c r="L22" s="2">
-        <v>45828.438194444447</v>
+      <c r="L22" t="s">
+        <v>1038</v>
       </c>
       <c r="M22" s="1" t="s">
         <v>990</v>
@@ -4431,8 +5267,8 @@
       <c r="K23" s="1">
         <v>30</v>
       </c>
-      <c r="L23" s="2">
-        <v>45853.597916666666</v>
+      <c r="L23" t="s">
+        <v>1039</v>
       </c>
       <c r="M23" s="1" t="s">
         <v>994</v>
@@ -4472,8 +5308,8 @@
       <c r="K24" s="1">
         <v>0</v>
       </c>
-      <c r="L24" s="2">
-        <v>45853.67291666667</v>
+      <c r="L24" t="s">
+        <v>1040</v>
       </c>
       <c r="M24" s="1" t="s">
         <v>990</v>
@@ -4513,8 +5349,8 @@
       <c r="K25" s="1">
         <v>90</v>
       </c>
-      <c r="L25" s="2">
-        <v>45853.761111111111</v>
+      <c r="L25" t="s">
+        <v>1041</v>
       </c>
       <c r="M25" s="1" t="s">
         <v>994</v>
@@ -4554,8 +5390,8 @@
       <c r="K26" s="1">
         <v>0</v>
       </c>
-      <c r="L26" s="2">
-        <v>45853.765277777777</v>
+      <c r="L26" t="s">
+        <v>1042</v>
       </c>
       <c r="M26" s="1" t="s">
         <v>990</v>
@@ -4595,8 +5431,8 @@
       <c r="K27" s="1">
         <v>3</v>
       </c>
-      <c r="L27" s="2">
-        <v>45853.961111111108</v>
+      <c r="L27" t="s">
+        <v>1043</v>
       </c>
       <c r="M27" s="1" t="s">
         <v>990</v>
@@ -4636,8 +5472,8 @@
       <c r="K28" s="1">
         <v>30</v>
       </c>
-      <c r="L28" s="2">
-        <v>45853.984722222223</v>
+      <c r="L28" t="s">
+        <v>1044</v>
       </c>
       <c r="M28" s="1" t="s">
         <v>990</v>
@@ -4677,8 +5513,8 @@
       <c r="K29" s="1">
         <v>100</v>
       </c>
-      <c r="L29" s="2">
-        <v>45854.37222222222</v>
+      <c r="L29" t="s">
+        <v>1045</v>
       </c>
       <c r="M29" s="1" t="s">
         <v>990</v>
@@ -4718,8 +5554,8 @@
       <c r="K30" s="1">
         <v>25</v>
       </c>
-      <c r="L30" s="2">
-        <v>45854.392361111109</v>
+      <c r="L30" t="s">
+        <v>1046</v>
       </c>
       <c r="M30" s="1" t="s">
         <v>990</v>
@@ -4759,8 +5595,8 @@
       <c r="K31" s="1">
         <v>90</v>
       </c>
-      <c r="L31" s="2">
-        <v>45854.841666666667</v>
+      <c r="L31" t="s">
+        <v>1047</v>
       </c>
       <c r="M31" s="1" t="s">
         <v>990</v>
@@ -4800,8 +5636,8 @@
       <c r="K32" s="1">
         <v>40</v>
       </c>
-      <c r="L32" s="2">
-        <v>45854.843055555553</v>
+      <c r="L32" t="s">
+        <v>1048</v>
       </c>
       <c r="M32" s="1" t="s">
         <v>994</v>
@@ -4841,8 +5677,8 @@
       <c r="K33" s="1">
         <v>60</v>
       </c>
-      <c r="L33" s="2">
-        <v>45854.843055555553</v>
+      <c r="L33" t="s">
+        <v>1048</v>
       </c>
       <c r="M33" s="1" t="s">
         <v>990</v>
@@ -4882,8 +5718,8 @@
       <c r="K34" s="1">
         <v>110</v>
       </c>
-      <c r="L34" s="2">
-        <v>45854.847222222219</v>
+      <c r="L34" t="s">
+        <v>1049</v>
       </c>
       <c r="M34" s="1" t="s">
         <v>1000</v>
@@ -4923,8 +5759,8 @@
       <c r="K35" s="1">
         <v>80</v>
       </c>
-      <c r="L35" s="2">
-        <v>45854.847222222219</v>
+      <c r="L35" t="s">
+        <v>1049</v>
       </c>
       <c r="M35" s="1" t="s">
         <v>994</v>
@@ -4964,8 +5800,8 @@
       <c r="K36" s="1">
         <v>90</v>
       </c>
-      <c r="L36" s="2">
-        <v>45854.847916666666</v>
+      <c r="L36" t="s">
+        <v>1050</v>
       </c>
       <c r="M36" s="1" t="s">
         <v>990</v>
@@ -5005,8 +5841,8 @@
       <c r="K37" s="1">
         <v>40</v>
       </c>
-      <c r="L37" s="2">
-        <v>45855.29791666667</v>
+      <c r="L37" t="s">
+        <v>1051</v>
       </c>
       <c r="M37" s="1" t="s">
         <v>990</v>
@@ -5046,8 +5882,8 @@
       <c r="K38" s="1">
         <v>25</v>
       </c>
-      <c r="L38" s="2">
-        <v>45855.298611111109</v>
+      <c r="L38" t="s">
+        <v>1052</v>
       </c>
       <c r="M38" s="1" t="s">
         <v>990</v>
@@ -5087,8 +5923,8 @@
       <c r="K39" s="1">
         <v>100</v>
       </c>
-      <c r="L39" s="2">
-        <v>45855.3</v>
+      <c r="L39" t="s">
+        <v>1053</v>
       </c>
       <c r="M39" s="1" t="s">
         <v>990</v>
@@ -5128,8 +5964,8 @@
       <c r="K40" s="1">
         <v>50</v>
       </c>
-      <c r="L40" s="2">
-        <v>45855.546527777777</v>
+      <c r="L40" t="s">
+        <v>1054</v>
       </c>
       <c r="M40" s="1" t="s">
         <v>990</v>
@@ -5169,8 +6005,8 @@
       <c r="K41" s="1">
         <v>35</v>
       </c>
-      <c r="L41" s="2">
-        <v>45855.557638888888</v>
+      <c r="L41" t="s">
+        <v>1055</v>
       </c>
       <c r="M41" s="1" t="s">
         <v>990</v>
@@ -5210,8 +6046,8 @@
       <c r="K42" s="1">
         <v>3</v>
       </c>
-      <c r="L42" s="2">
-        <v>45855.574999999997</v>
+      <c r="L42" t="s">
+        <v>1056</v>
       </c>
       <c r="M42" s="1" t="s">
         <v>990</v>
@@ -5251,8 +6087,8 @@
       <c r="K43" s="1">
         <v>25</v>
       </c>
-      <c r="L43" s="2">
-        <v>45855.800694444442</v>
+      <c r="L43" t="s">
+        <v>1057</v>
       </c>
       <c r="M43" s="1" t="s">
         <v>990</v>
@@ -5292,8 +6128,8 @@
       <c r="K44" s="1">
         <v>0</v>
       </c>
-      <c r="L44" s="2">
-        <v>45856.299305555556</v>
+      <c r="L44" t="s">
+        <v>1058</v>
       </c>
       <c r="M44" s="1" t="s">
         <v>990</v>
@@ -5333,8 +6169,8 @@
       <c r="K45" s="1">
         <v>0</v>
       </c>
-      <c r="L45" s="2">
-        <v>45856.3</v>
+      <c r="L45" t="s">
+        <v>1059</v>
       </c>
       <c r="M45" s="1" t="s">
         <v>990</v>
@@ -5374,8 +6210,8 @@
       <c r="K46" s="1">
         <v>0</v>
       </c>
-      <c r="L46" s="2">
-        <v>45856.302777777775</v>
+      <c r="L46" t="s">
+        <v>1060</v>
       </c>
       <c r="M46" s="1" t="s">
         <v>990</v>
@@ -5415,8 +6251,8 @@
       <c r="K47" s="1">
         <v>0</v>
       </c>
-      <c r="L47" s="2">
-        <v>45856.302777777775</v>
+      <c r="L47" t="s">
+        <v>1060</v>
       </c>
       <c r="M47" s="1" t="s">
         <v>990</v>
@@ -5452,8 +6288,8 @@
       <c r="K48" s="1">
         <v>29</v>
       </c>
-      <c r="L48" s="2">
-        <v>45856.306250000001</v>
+      <c r="L48" t="s">
+        <v>1061</v>
       </c>
       <c r="M48" s="1" t="s">
         <v>991</v>
@@ -5493,8 +6329,8 @@
       <c r="K49" s="1">
         <v>100</v>
       </c>
-      <c r="L49" s="2">
-        <v>45856.306944444441</v>
+      <c r="L49" t="s">
+        <v>1062</v>
       </c>
       <c r="M49" s="1" t="s">
         <v>991</v>
@@ -5534,8 +6370,8 @@
       <c r="K50" s="1">
         <v>75</v>
       </c>
-      <c r="L50" s="2">
-        <v>45856.460416666669</v>
+      <c r="L50" t="s">
+        <v>1063</v>
       </c>
       <c r="M50" s="1" t="s">
         <v>990</v>
@@ -5575,8 +6411,8 @@
       <c r="K51" s="1">
         <v>75</v>
       </c>
-      <c r="L51" s="2">
-        <v>45856.461805555555</v>
+      <c r="L51" t="s">
+        <v>1064</v>
       </c>
       <c r="M51" s="1" t="s">
         <v>990</v>
@@ -5616,8 +6452,8 @@
       <c r="K52" s="1">
         <v>0</v>
       </c>
-      <c r="L52" s="2">
-        <v>45856.507638888892</v>
+      <c r="L52" t="s">
+        <v>1065</v>
       </c>
       <c r="M52" s="1" t="s">
         <v>990</v>
@@ -5657,8 +6493,8 @@
       <c r="K53" s="1">
         <v>0</v>
       </c>
-      <c r="L53" s="2">
-        <v>45856.636805555558</v>
+      <c r="L53" t="s">
+        <v>1066</v>
       </c>
       <c r="M53" s="1" t="s">
         <v>990</v>
@@ -5698,8 +6534,8 @@
       <c r="K54" s="1">
         <v>20</v>
       </c>
-      <c r="L54" s="2">
-        <v>45856.640277777777</v>
+      <c r="L54" t="s">
+        <v>1067</v>
       </c>
       <c r="M54" s="1" t="s">
         <v>990</v>
@@ -5739,8 +6575,8 @@
       <c r="K55" s="1">
         <v>0</v>
       </c>
-      <c r="L55" s="2">
-        <v>45859.324305555558</v>
+      <c r="L55" t="s">
+        <v>1068</v>
       </c>
       <c r="M55" s="1" t="s">
         <v>990</v>
@@ -5780,8 +6616,8 @@
       <c r="K56" s="1">
         <v>10</v>
       </c>
-      <c r="L56" s="2">
-        <v>45859.390277777777</v>
+      <c r="L56" t="s">
+        <v>1069</v>
       </c>
       <c r="M56" s="1" t="s">
         <v>990</v>
@@ -5821,8 +6657,8 @@
       <c r="K57" s="1">
         <v>25</v>
       </c>
-      <c r="L57" s="2">
-        <v>45859.399305555555</v>
+      <c r="L57" t="s">
+        <v>1070</v>
       </c>
       <c r="M57" s="1" t="s">
         <v>990</v>
@@ -5862,8 +6698,8 @@
       <c r="K58" s="1">
         <v>126</v>
       </c>
-      <c r="L58" s="2">
-        <v>45859.518750000003</v>
+      <c r="L58" t="s">
+        <v>1071</v>
       </c>
       <c r="M58" s="1" t="s">
         <v>990</v>
@@ -5903,8 +6739,8 @@
       <c r="K59" s="1">
         <v>100</v>
       </c>
-      <c r="L59" s="2">
-        <v>45859.54791666667</v>
+      <c r="L59" t="s">
+        <v>1072</v>
       </c>
       <c r="M59" s="1" t="s">
         <v>990</v>
@@ -5944,8 +6780,8 @@
       <c r="K60" s="1">
         <v>50</v>
       </c>
-      <c r="L60" s="2">
-        <v>45859.640972222223</v>
+      <c r="L60" t="s">
+        <v>1073</v>
       </c>
       <c r="M60" s="1" t="s">
         <v>990</v>
@@ -5985,8 +6821,8 @@
       <c r="K61" s="1">
         <v>12</v>
       </c>
-      <c r="L61" s="2">
-        <v>45859.743055555555</v>
+      <c r="L61" t="s">
+        <v>1074</v>
       </c>
       <c r="M61" s="1" t="s">
         <v>991</v>
@@ -6026,8 +6862,8 @@
       <c r="K62" s="1">
         <v>7</v>
       </c>
-      <c r="L62" s="2">
-        <v>45859.822222222225</v>
+      <c r="L62" t="s">
+        <v>1075</v>
       </c>
       <c r="M62" s="1" t="s">
         <v>994</v>
@@ -6067,8 +6903,8 @@
       <c r="K63" s="1">
         <v>20</v>
       </c>
-      <c r="L63" s="2">
-        <v>45859.824305555558</v>
+      <c r="L63" t="s">
+        <v>1076</v>
       </c>
       <c r="M63" s="1" t="s">
         <v>994</v>
@@ -6108,8 +6944,8 @@
       <c r="K64" s="1">
         <v>0</v>
       </c>
-      <c r="L64" s="2">
-        <v>45859.838194444441</v>
+      <c r="L64" t="s">
+        <v>1077</v>
       </c>
       <c r="M64" s="1" t="s">
         <v>990</v>
@@ -6149,8 +6985,8 @@
       <c r="K65" s="1">
         <v>43</v>
       </c>
-      <c r="L65" s="2">
-        <v>45859.838888888888</v>
+      <c r="L65" t="s">
+        <v>1078</v>
       </c>
       <c r="M65" s="1" t="s">
         <v>990</v>
@@ -6190,8 +7026,8 @@
       <c r="K66" s="1">
         <v>0</v>
       </c>
-      <c r="L66" s="2">
-        <v>45859.838888888888</v>
+      <c r="L66" t="s">
+        <v>1078</v>
       </c>
       <c r="M66" s="1" t="s">
         <v>990</v>
@@ -6231,8 +7067,8 @@
       <c r="K67" s="1">
         <v>20</v>
       </c>
-      <c r="L67" s="2">
-        <v>45859.921527777777</v>
+      <c r="L67" t="s">
+        <v>1079</v>
       </c>
       <c r="M67" s="1" t="s">
         <v>990</v>
@@ -6272,8 +7108,8 @@
       <c r="K68" s="1">
         <v>150</v>
       </c>
-      <c r="L68" s="2">
-        <v>45859.966666666667</v>
+      <c r="L68" t="s">
+        <v>1080</v>
       </c>
       <c r="M68" s="1" t="s">
         <v>990</v>
@@ -6313,8 +7149,8 @@
       <c r="K69" s="1">
         <v>100</v>
       </c>
-      <c r="L69" s="2">
-        <v>45860.301388888889</v>
+      <c r="L69" t="s">
+        <v>1081</v>
       </c>
       <c r="M69" s="1" t="s">
         <v>991</v>
@@ -6354,8 +7190,8 @@
       <c r="K70" s="1">
         <v>50</v>
       </c>
-      <c r="L70" s="2">
-        <v>45860.302777777775</v>
+      <c r="L70" t="s">
+        <v>1082</v>
       </c>
       <c r="M70" s="1" t="s">
         <v>990</v>
@@ -6395,8 +7231,8 @@
       <c r="K71" s="1">
         <v>25</v>
       </c>
-      <c r="L71" s="2">
-        <v>45860.338888888888</v>
+      <c r="L71" t="s">
+        <v>1083</v>
       </c>
       <c r="M71" s="1" t="s">
         <v>990</v>
@@ -6436,8 +7272,8 @@
       <c r="K72" s="1">
         <v>6</v>
       </c>
-      <c r="L72" s="2">
-        <v>45860.339583333334</v>
+      <c r="L72" t="s">
+        <v>1084</v>
       </c>
       <c r="M72" s="1" t="s">
         <v>990</v>
@@ -6477,8 +7313,8 @@
       <c r="K73" s="1">
         <v>25</v>
       </c>
-      <c r="L73" s="2">
-        <v>45860.34097222222</v>
+      <c r="L73" t="s">
+        <v>1085</v>
       </c>
       <c r="M73" s="1" t="s">
         <v>990</v>
@@ -6518,8 +7354,8 @@
       <c r="K74" s="1">
         <v>40</v>
       </c>
-      <c r="L74" s="2">
-        <v>45860.343055555553</v>
+      <c r="L74" t="s">
+        <v>1086</v>
       </c>
       <c r="M74" s="1" t="s">
         <v>994</v>
@@ -6559,8 +7395,8 @@
       <c r="K75" s="1">
         <v>40</v>
       </c>
-      <c r="L75" s="2">
-        <v>45860.347222222219</v>
+      <c r="L75" t="s">
+        <v>1087</v>
       </c>
       <c r="M75" s="1" t="s">
         <v>990</v>
@@ -6600,8 +7436,8 @@
       <c r="K76" s="1">
         <v>0</v>
       </c>
-      <c r="L76" s="2">
-        <v>45860.35</v>
+      <c r="L76" t="s">
+        <v>1088</v>
       </c>
       <c r="M76" s="1" t="s">
         <v>990</v>
@@ -6641,8 +7477,8 @@
       <c r="K77" s="1">
         <v>100</v>
       </c>
-      <c r="L77" s="2">
-        <v>45860.352083333331</v>
+      <c r="L77" t="s">
+        <v>1089</v>
       </c>
       <c r="M77" s="1" t="s">
         <v>990</v>
@@ -6682,8 +7518,8 @@
       <c r="K78" s="1">
         <v>100</v>
       </c>
-      <c r="L78" s="2">
-        <v>45860.365972222222</v>
+      <c r="L78" t="s">
+        <v>1090</v>
       </c>
       <c r="M78" s="1" t="s">
         <v>990</v>
@@ -6723,8 +7559,8 @@
       <c r="K79" s="1">
         <v>60</v>
       </c>
-      <c r="L79" s="2">
-        <v>45860.373611111114</v>
+      <c r="L79" t="s">
+        <v>1091</v>
       </c>
       <c r="M79" s="1" t="s">
         <v>990</v>
@@ -6764,8 +7600,8 @@
       <c r="K80" s="1">
         <v>70</v>
       </c>
-      <c r="L80" s="2">
-        <v>45860.375</v>
+      <c r="L80" t="s">
+        <v>1092</v>
       </c>
       <c r="M80" s="1" t="s">
         <v>990</v>
@@ -6805,8 +7641,8 @@
       <c r="K81" s="1">
         <v>0</v>
       </c>
-      <c r="L81" s="2">
-        <v>45860.44027777778</v>
+      <c r="L81" t="s">
+        <v>1093</v>
       </c>
       <c r="M81" s="1" t="s">
         <v>990</v>
@@ -6846,8 +7682,8 @@
       <c r="K82" s="1">
         <v>100</v>
       </c>
-      <c r="L82" s="2">
-        <v>45860.498611111114</v>
+      <c r="L82" t="s">
+        <v>1094</v>
       </c>
       <c r="M82" s="1" t="s">
         <v>990</v>
@@ -6887,8 +7723,8 @@
       <c r="K83" s="1">
         <v>80</v>
       </c>
-      <c r="L83" s="2">
-        <v>45860.511805555558</v>
+      <c r="L83" t="s">
+        <v>1095</v>
       </c>
       <c r="M83" s="1" t="s">
         <v>990</v>
@@ -6928,8 +7764,8 @@
       <c r="K84" s="1">
         <v>80</v>
       </c>
-      <c r="L84" s="2">
-        <v>45860.512499999997</v>
+      <c r="L84" t="s">
+        <v>1096</v>
       </c>
       <c r="M84" s="1" t="s">
         <v>990</v>
@@ -6969,8 +7805,8 @@
       <c r="K85" s="1">
         <v>90</v>
       </c>
-      <c r="L85" s="2">
-        <v>45860.513888888891</v>
+      <c r="L85" t="s">
+        <v>1097</v>
       </c>
       <c r="M85" s="1" t="s">
         <v>990</v>
@@ -7010,8 +7846,8 @@
       <c r="K86" s="1">
         <v>0</v>
       </c>
-      <c r="L86" s="2">
-        <v>45860.51458333333</v>
+      <c r="L86" t="s">
+        <v>1098</v>
       </c>
       <c r="M86" s="1" t="s">
         <v>991</v>
@@ -7051,8 +7887,8 @@
       <c r="K87" s="1">
         <v>25</v>
       </c>
-      <c r="L87" s="2">
-        <v>45860.576388888891</v>
+      <c r="L87" t="s">
+        <v>1099</v>
       </c>
       <c r="M87" s="1" t="s">
         <v>990</v>
@@ -7092,8 +7928,8 @@
       <c r="K88" s="1">
         <v>100</v>
       </c>
-      <c r="L88" s="2">
-        <v>45860.591666666667</v>
+      <c r="L88" t="s">
+        <v>1100</v>
       </c>
       <c r="M88" s="1" t="s">
         <v>990</v>
@@ -7133,8 +7969,8 @@
       <c r="K89" s="1">
         <v>100</v>
       </c>
-      <c r="L89" s="2">
-        <v>45860.592361111114</v>
+      <c r="L89" t="s">
+        <v>1101</v>
       </c>
       <c r="M89" s="1" t="s">
         <v>990</v>
@@ -7174,8 +8010,8 @@
       <c r="K90" s="1">
         <v>25</v>
       </c>
-      <c r="L90" s="2">
-        <v>45860.59652777778</v>
+      <c r="L90" t="s">
+        <v>1102</v>
       </c>
       <c r="M90" s="1" t="s">
         <v>990</v>
@@ -7215,8 +8051,8 @@
       <c r="K91" s="1">
         <v>40</v>
       </c>
-      <c r="L91" s="2">
-        <v>45860.652777777781</v>
+      <c r="L91" t="s">
+        <v>1103</v>
       </c>
       <c r="M91" s="1" t="s">
         <v>990</v>
@@ -7256,8 +8092,8 @@
       <c r="K92" s="1">
         <v>20</v>
       </c>
-      <c r="L92" s="2">
-        <v>45860.654166666667</v>
+      <c r="L92" t="s">
+        <v>1104</v>
       </c>
       <c r="M92" s="1" t="s">
         <v>990</v>
@@ -7297,8 +8133,8 @@
       <c r="K93" s="1">
         <v>0</v>
       </c>
-      <c r="L93" s="2">
-        <v>45860.724999999999</v>
+      <c r="L93" t="s">
+        <v>1105</v>
       </c>
       <c r="M93" s="1" t="s">
         <v>991</v>
@@ -7338,8 +8174,8 @@
       <c r="K94" s="1">
         <v>65</v>
       </c>
-      <c r="L94" s="2">
-        <v>45860.731944444444</v>
+      <c r="L94" t="s">
+        <v>1106</v>
       </c>
       <c r="M94" s="1" t="s">
         <v>990</v>
@@ -7379,8 +8215,8 @@
       <c r="K95" s="1">
         <v>40</v>
       </c>
-      <c r="L95" s="2">
-        <v>45860.823611111111</v>
+      <c r="L95" t="s">
+        <v>1107</v>
       </c>
       <c r="M95" s="1" t="s">
         <v>990</v>
@@ -7420,8 +8256,8 @@
       <c r="K96" s="1">
         <v>0</v>
       </c>
-      <c r="L96" s="2">
-        <v>45861.296527777777</v>
+      <c r="L96" t="s">
+        <v>1108</v>
       </c>
       <c r="M96" s="1" t="s">
         <v>990</v>
@@ -7461,8 +8297,8 @@
       <c r="K97" s="1">
         <v>0</v>
       </c>
-      <c r="L97" s="2">
-        <v>45861.297222222223</v>
+      <c r="L97" t="s">
+        <v>1109</v>
       </c>
       <c r="M97" s="1" t="s">
         <v>990</v>
@@ -7502,8 +8338,8 @@
       <c r="K98" s="1">
         <v>0</v>
       </c>
-      <c r="L98" s="2">
-        <v>45861.29791666667</v>
+      <c r="L98" t="s">
+        <v>1110</v>
       </c>
       <c r="M98" s="1" t="s">
         <v>990</v>
@@ -7543,8 +8379,8 @@
       <c r="K99" s="1">
         <v>0</v>
       </c>
-      <c r="L99" s="2">
-        <v>45861.29791666667</v>
+      <c r="L99" t="s">
+        <v>1110</v>
       </c>
       <c r="M99" s="1" t="s">
         <v>990</v>
@@ -7584,8 +8420,8 @@
       <c r="K100" s="1">
         <v>0</v>
       </c>
-      <c r="L100" s="2">
-        <v>45861.301388888889</v>
+      <c r="L100" t="s">
+        <v>1111</v>
       </c>
       <c r="M100" s="1" t="s">
         <v>990</v>
@@ -7625,8 +8461,8 @@
       <c r="K101" s="1">
         <v>25</v>
       </c>
-      <c r="L101" s="2">
-        <v>45861.302083333336</v>
+      <c r="L101" t="s">
+        <v>1112</v>
       </c>
       <c r="M101" s="1" t="s">
         <v>1000</v>
@@ -7666,8 +8502,8 @@
       <c r="K102" s="1">
         <v>0</v>
       </c>
-      <c r="L102" s="2">
-        <v>45861.302777777775</v>
+      <c r="L102" t="s">
+        <v>1113</v>
       </c>
       <c r="M102" s="1" t="s">
         <v>990</v>
@@ -7707,8 +8543,8 @@
       <c r="K103" s="1">
         <v>0</v>
       </c>
-      <c r="L103" s="2">
-        <v>45861.302777777775</v>
+      <c r="L103" t="s">
+        <v>1113</v>
       </c>
       <c r="M103" s="1" t="s">
         <v>990</v>
@@ -7748,8 +8584,8 @@
       <c r="K104" s="1">
         <v>52</v>
       </c>
-      <c r="L104" s="2">
-        <v>45861.303472222222</v>
+      <c r="L104" t="s">
+        <v>1114</v>
       </c>
       <c r="M104" s="1" t="s">
         <v>990</v>
@@ -7789,8 +8625,8 @@
       <c r="K105" s="1">
         <v>90</v>
       </c>
-      <c r="L105" s="2">
-        <v>45861.306250000001</v>
+      <c r="L105" t="s">
+        <v>1115</v>
       </c>
       <c r="M105" s="1" t="s">
         <v>990</v>
@@ -7830,8 +8666,8 @@
       <c r="K106" s="1">
         <v>0</v>
       </c>
-      <c r="L106" s="2">
-        <v>45861.338194444441</v>
+      <c r="L106" t="s">
+        <v>1116</v>
       </c>
       <c r="M106" s="1" t="s">
         <v>990</v>
@@ -7871,8 +8707,8 @@
       <c r="K107" s="1">
         <v>60</v>
       </c>
-      <c r="L107" s="2">
-        <v>45861.34652777778</v>
+      <c r="L107" t="s">
+        <v>1117</v>
       </c>
       <c r="M107" s="1" t="s">
         <v>990</v>
@@ -7912,8 +8748,8 @@
       <c r="K108" s="1">
         <v>100</v>
       </c>
-      <c r="L108" s="2">
-        <v>45861.351388888892</v>
+      <c r="L108" t="s">
+        <v>1118</v>
       </c>
       <c r="M108" s="1" t="s">
         <v>990</v>
@@ -7953,8 +8789,8 @@
       <c r="K109" s="1">
         <v>100</v>
       </c>
-      <c r="L109" s="2">
-        <v>45861.352083333331</v>
+      <c r="L109" t="s">
+        <v>1119</v>
       </c>
       <c r="M109" s="1" t="s">
         <v>990</v>
@@ -7994,8 +8830,8 @@
       <c r="K110" s="1">
         <v>25</v>
       </c>
-      <c r="L110" s="2">
-        <v>45861.369444444441</v>
+      <c r="L110" t="s">
+        <v>1120</v>
       </c>
       <c r="M110" s="1" t="s">
         <v>990</v>
@@ -8035,8 +8871,8 @@
       <c r="K111" s="1">
         <v>95</v>
       </c>
-      <c r="L111" s="2">
-        <v>45861.384722222225</v>
+      <c r="L111" t="s">
+        <v>1121</v>
       </c>
       <c r="M111" s="1" t="s">
         <v>990</v>
@@ -8076,8 +8912,8 @@
       <c r="K112" s="1">
         <v>200</v>
       </c>
-      <c r="L112" s="2">
-        <v>45861.388888888891</v>
+      <c r="L112" t="s">
+        <v>1122</v>
       </c>
       <c r="M112" s="1" t="s">
         <v>990</v>
@@ -8117,8 +8953,8 @@
       <c r="K113" s="1">
         <v>0</v>
       </c>
-      <c r="L113" s="2">
-        <v>45861.38958333333</v>
+      <c r="L113" t="s">
+        <v>1123</v>
       </c>
       <c r="M113" s="1" t="s">
         <v>990</v>
@@ -8158,8 +8994,8 @@
       <c r="K114" s="1">
         <v>50</v>
       </c>
-      <c r="L114" s="2">
-        <v>45861.39166666667</v>
+      <c r="L114" t="s">
+        <v>1124</v>
       </c>
       <c r="M114" s="1" t="s">
         <v>990</v>
@@ -8199,8 +9035,8 @@
       <c r="K115" s="1">
         <v>100</v>
       </c>
-      <c r="L115" s="2">
-        <v>45861.397916666669</v>
+      <c r="L115" t="s">
+        <v>1125</v>
       </c>
       <c r="M115" s="1" t="s">
         <v>990</v>
@@ -8240,8 +9076,8 @@
       <c r="K116" s="1">
         <v>200</v>
       </c>
-      <c r="L116" s="2">
-        <v>45861.415972222225</v>
+      <c r="L116" t="s">
+        <v>1126</v>
       </c>
       <c r="M116" s="1" t="s">
         <v>990</v>
@@ -8281,8 +9117,8 @@
       <c r="K117" s="1">
         <v>200</v>
       </c>
-      <c r="L117" s="2">
-        <v>45861.417361111111</v>
+      <c r="L117" t="s">
+        <v>1127</v>
       </c>
       <c r="M117" s="1" t="s">
         <v>990</v>
@@ -8322,8 +9158,8 @@
       <c r="K118" s="1">
         <v>25</v>
       </c>
-      <c r="L118" s="2">
-        <v>45861.440972222219</v>
+      <c r="L118" t="s">
+        <v>1128</v>
       </c>
       <c r="M118" s="1" t="s">
         <v>990</v>
@@ -8363,8 +9199,8 @@
       <c r="K119" s="1">
         <v>50</v>
       </c>
-      <c r="L119" s="2">
-        <v>45861.441666666666</v>
+      <c r="L119" t="s">
+        <v>1129</v>
       </c>
       <c r="M119" s="1" t="s">
         <v>990</v>
@@ -8404,8 +9240,8 @@
       <c r="K120" s="1">
         <v>200</v>
       </c>
-      <c r="L120" s="2">
-        <v>45861.446527777778</v>
+      <c r="L120" t="s">
+        <v>1130</v>
       </c>
       <c r="M120" s="1" t="s">
         <v>990</v>
@@ -8445,8 +9281,8 @@
       <c r="K121" s="1">
         <v>50</v>
       </c>
-      <c r="L121" s="2">
-        <v>45861.447222222225</v>
+      <c r="L121" t="s">
+        <v>1131</v>
       </c>
       <c r="M121" s="1" t="s">
         <v>990</v>
@@ -8486,8 +9322,8 @@
       <c r="K122" s="1">
         <v>15</v>
       </c>
-      <c r="L122" s="2">
-        <v>45861.45</v>
+      <c r="L122" t="s">
+        <v>1132</v>
       </c>
       <c r="M122" s="1" t="s">
         <v>990</v>
@@ -8527,8 +9363,8 @@
       <c r="K123" s="1">
         <v>150</v>
       </c>
-      <c r="L123" s="2">
-        <v>45861.466666666667</v>
+      <c r="L123" t="s">
+        <v>1133</v>
       </c>
       <c r="M123" s="1" t="s">
         <v>990</v>
@@ -8568,8 +9404,8 @@
       <c r="K124" s="1">
         <v>100</v>
       </c>
-      <c r="L124" s="2">
-        <v>45861.486111111109</v>
+      <c r="L124" t="s">
+        <v>1134</v>
       </c>
       <c r="M124" s="1" t="s">
         <v>990</v>
@@ -8609,8 +9445,8 @@
       <c r="K125" s="1">
         <v>0</v>
       </c>
-      <c r="L125" s="2">
-        <v>45861.487500000003</v>
+      <c r="L125" t="s">
+        <v>1135</v>
       </c>
       <c r="M125" s="1" t="s">
         <v>994</v>
@@ -8650,8 +9486,8 @@
       <c r="K126" s="1">
         <v>0</v>
       </c>
-      <c r="L126" s="2">
-        <v>45861.488194444442</v>
+      <c r="L126" t="s">
+        <v>1136</v>
       </c>
       <c r="M126" s="1" t="s">
         <v>994</v>
@@ -8691,8 +9527,8 @@
       <c r="K127" s="1">
         <v>100</v>
       </c>
-      <c r="L127" s="2">
-        <v>45861.495833333334</v>
+      <c r="L127" t="s">
+        <v>1137</v>
       </c>
       <c r="M127" s="1" t="s">
         <v>990</v>
@@ -8732,8 +9568,8 @@
       <c r="K128" s="1">
         <v>20</v>
       </c>
-      <c r="L128" s="2">
-        <v>45861.504166666666</v>
+      <c r="L128" t="s">
+        <v>1138</v>
       </c>
       <c r="M128" s="1" t="s">
         <v>990</v>
@@ -8773,8 +9609,8 @@
       <c r="K129" s="1">
         <v>20</v>
       </c>
-      <c r="L129" s="2">
-        <v>45861.506249999999</v>
+      <c r="L129" t="s">
+        <v>1139</v>
       </c>
       <c r="M129" s="1" t="s">
         <v>990</v>
@@ -8814,8 +9650,8 @@
       <c r="K130" s="1">
         <v>20</v>
       </c>
-      <c r="L130" s="2">
-        <v>45861.506944444445</v>
+      <c r="L130" t="s">
+        <v>1140</v>
       </c>
       <c r="M130" s="1" t="s">
         <v>990</v>
@@ -8855,8 +9691,8 @@
       <c r="K131" s="1">
         <v>20</v>
       </c>
-      <c r="L131" s="2">
-        <v>45861.512499999997</v>
+      <c r="L131" t="s">
+        <v>1141</v>
       </c>
       <c r="M131" s="1" t="s">
         <v>990</v>
@@ -8896,8 +9732,8 @@
       <c r="K132" s="1">
         <v>50</v>
       </c>
-      <c r="L132" s="2">
-        <v>45861.521527777775</v>
+      <c r="L132" t="s">
+        <v>1142</v>
       </c>
       <c r="M132" s="1" t="s">
         <v>990</v>
@@ -8937,8 +9773,8 @@
       <c r="K133" s="1">
         <v>20</v>
       </c>
-      <c r="L133" s="2">
-        <v>45861.535416666666</v>
+      <c r="L133" t="s">
+        <v>1143</v>
       </c>
       <c r="M133" s="1" t="s">
         <v>990</v>
@@ -8978,8 +9814,8 @@
       <c r="K134" s="1">
         <v>0</v>
       </c>
-      <c r="L134" s="2">
-        <v>45861.535416666666</v>
+      <c r="L134" t="s">
+        <v>1143</v>
       </c>
       <c r="M134" s="1" t="s">
         <v>990</v>
@@ -9019,8 +9855,8 @@
       <c r="K135" s="1">
         <v>15</v>
       </c>
-      <c r="L135" s="2">
-        <v>45861.54791666667</v>
+      <c r="L135" t="s">
+        <v>1144</v>
       </c>
       <c r="M135" s="1" t="s">
         <v>990</v>
@@ -9060,8 +9896,8 @@
       <c r="K136" s="1">
         <v>200</v>
       </c>
-      <c r="L136" s="2">
-        <v>45861.554861111108</v>
+      <c r="L136" t="s">
+        <v>1145</v>
       </c>
       <c r="M136" s="1" t="s">
         <v>990</v>
@@ -9101,8 +9937,8 @@
       <c r="K137" s="1">
         <v>50</v>
       </c>
-      <c r="L137" s="2">
-        <v>45861.558333333334</v>
+      <c r="L137" t="s">
+        <v>1146</v>
       </c>
       <c r="M137" s="1" t="s">
         <v>990</v>
@@ -9142,8 +9978,8 @@
       <c r="K138" s="1">
         <v>70</v>
       </c>
-      <c r="L138" s="2">
-        <v>45861.580555555556</v>
+      <c r="L138" t="s">
+        <v>1147</v>
       </c>
       <c r="M138" s="1" t="s">
         <v>990</v>
@@ -9183,8 +10019,8 @@
       <c r="K139" s="1">
         <v>80</v>
       </c>
-      <c r="L139" s="2">
-        <v>45861.581944444442</v>
+      <c r="L139" t="s">
+        <v>1148</v>
       </c>
       <c r="M139" s="1" t="s">
         <v>990</v>
@@ -9224,8 +10060,8 @@
       <c r="K140" s="1">
         <v>80</v>
       </c>
-      <c r="L140" s="2">
-        <v>45861.581944444442</v>
+      <c r="L140" t="s">
+        <v>1148</v>
       </c>
       <c r="M140" s="1" t="s">
         <v>990</v>
@@ -9265,8 +10101,8 @@
       <c r="K141" s="1">
         <v>100</v>
       </c>
-      <c r="L141" s="2">
-        <v>45861.644444444442</v>
+      <c r="L141" t="s">
+        <v>1149</v>
       </c>
       <c r="M141" s="1" t="s">
         <v>990</v>
@@ -9306,8 +10142,8 @@
       <c r="K142" s="1">
         <v>100</v>
       </c>
-      <c r="L142" s="2">
-        <v>45861.650694444441</v>
+      <c r="L142" t="s">
+        <v>1150</v>
       </c>
       <c r="M142" s="1" t="s">
         <v>1000</v>
@@ -9347,8 +10183,8 @@
       <c r="K143" s="1">
         <v>150</v>
       </c>
-      <c r="L143" s="2">
-        <v>45861.659722222219</v>
+      <c r="L143" t="s">
+        <v>1151</v>
       </c>
       <c r="M143" s="1" t="s">
         <v>990</v>
@@ -9388,8 +10224,8 @@
       <c r="K144" s="1">
         <v>25</v>
       </c>
-      <c r="L144" s="2">
-        <v>45861.660416666666</v>
+      <c r="L144" t="s">
+        <v>1152</v>
       </c>
       <c r="M144" s="1" t="s">
         <v>990</v>
@@ -9429,8 +10265,8 @@
       <c r="K145" s="1">
         <v>100</v>
       </c>
-      <c r="L145" s="2">
-        <v>45861.664583333331</v>
+      <c r="L145" t="s">
+        <v>1153</v>
       </c>
       <c r="M145" s="1" t="s">
         <v>990</v>
@@ -9470,8 +10306,8 @@
       <c r="K146" s="1">
         <v>100</v>
       </c>
-      <c r="L146" s="2">
-        <v>45861.664583333331</v>
+      <c r="L146" t="s">
+        <v>1153</v>
       </c>
       <c r="M146" s="1" t="s">
         <v>990</v>
@@ -9511,8 +10347,8 @@
       <c r="K147" s="1">
         <v>74</v>
       </c>
-      <c r="L147" s="2">
-        <v>45861.746527777781</v>
+      <c r="L147" t="s">
+        <v>1154</v>
       </c>
       <c r="M147" s="1" t="s">
         <v>990</v>
@@ -9552,8 +10388,8 @@
       <c r="K148" s="1">
         <v>40</v>
       </c>
-      <c r="L148" s="2">
-        <v>45861.85</v>
+      <c r="L148" t="s">
+        <v>1155</v>
       </c>
       <c r="M148" s="1" t="s">
         <v>990</v>
@@ -9593,8 +10429,8 @@
       <c r="K149" s="1">
         <v>30</v>
       </c>
-      <c r="L149" s="2">
-        <v>45861.938194444447</v>
+      <c r="L149" t="s">
+        <v>1156</v>
       </c>
       <c r="M149" s="1" t="s">
         <v>990</v>
@@ -9634,8 +10470,8 @@
       <c r="K150" s="1">
         <v>75</v>
       </c>
-      <c r="L150" s="2">
-        <v>45862.302777777775</v>
+      <c r="L150" t="s">
+        <v>1157</v>
       </c>
       <c r="M150" s="1" t="s">
         <v>1000</v>
@@ -9675,8 +10511,8 @@
       <c r="K151" s="1">
         <v>50</v>
       </c>
-      <c r="L151" s="2">
-        <v>45862.303472222222</v>
+      <c r="L151" t="s">
+        <v>1158</v>
       </c>
       <c r="M151" s="1" t="s">
         <v>990</v>
@@ -9716,8 +10552,8 @@
       <c r="K152" s="1">
         <v>0</v>
       </c>
-      <c r="L152" s="2">
-        <v>45862.309027777781</v>
+      <c r="L152" t="s">
+        <v>1159</v>
       </c>
       <c r="M152" s="1" t="s">
         <v>990</v>
@@ -9757,8 +10593,8 @@
       <c r="K153" s="1">
         <v>28</v>
       </c>
-      <c r="L153" s="2">
-        <v>45862.30972222222</v>
+      <c r="L153" t="s">
+        <v>1160</v>
       </c>
       <c r="M153" s="1" t="s">
         <v>990</v>
@@ -9798,8 +10634,8 @@
       <c r="K154" s="1">
         <v>0</v>
       </c>
-      <c r="L154" s="2">
-        <v>45862.310416666667</v>
+      <c r="L154" t="s">
+        <v>1161</v>
       </c>
       <c r="M154" s="1" t="s">
         <v>990</v>
@@ -9839,8 +10675,8 @@
       <c r="K155" s="1">
         <v>70</v>
       </c>
-      <c r="L155" s="2">
-        <v>45862.313888888886</v>
+      <c r="L155" t="s">
+        <v>1162</v>
       </c>
       <c r="M155" s="1" t="s">
         <v>990</v>
@@ -9880,8 +10716,8 @@
       <c r="K156" s="1">
         <v>25</v>
       </c>
-      <c r="L156" s="2">
-        <v>45862.315972222219</v>
+      <c r="L156" t="s">
+        <v>1163</v>
       </c>
       <c r="M156" s="1" t="s">
         <v>990</v>
@@ -9921,8 +10757,8 @@
       <c r="K157" s="1">
         <v>75</v>
       </c>
-      <c r="L157" s="2">
-        <v>45862.348611111112</v>
+      <c r="L157" t="s">
+        <v>1164</v>
       </c>
       <c r="M157" s="1" t="s">
         <v>990</v>
@@ -9962,8 +10798,8 @@
       <c r="K158" s="1">
         <v>50</v>
       </c>
-      <c r="L158" s="2">
-        <v>45862.349305555559</v>
+      <c r="L158" t="s">
+        <v>1165</v>
       </c>
       <c r="M158" s="1" t="s">
         <v>990</v>
@@ -10003,8 +10839,8 @@
       <c r="K159" s="1">
         <v>15</v>
       </c>
-      <c r="L159" s="2">
-        <v>45862.356249999997</v>
+      <c r="L159" t="s">
+        <v>1166</v>
       </c>
       <c r="M159" s="1" t="s">
         <v>990</v>
@@ -10044,8 +10880,8 @@
       <c r="K160" s="1">
         <v>75</v>
       </c>
-      <c r="L160" s="2">
-        <v>45862.372916666667</v>
+      <c r="L160" t="s">
+        <v>1167</v>
       </c>
       <c r="M160" s="1" t="s">
         <v>990</v>
@@ -10085,8 +10921,8 @@
       <c r="K161" s="1">
         <v>200</v>
       </c>
-      <c r="L161" s="2">
-        <v>45862.37777777778</v>
+      <c r="L161" t="s">
+        <v>1168</v>
       </c>
       <c r="M161" s="1" t="s">
         <v>990</v>
@@ -10126,8 +10962,8 @@
       <c r="K162" s="1">
         <v>30</v>
       </c>
-      <c r="L162" s="2">
-        <v>45862.388194444444</v>
+      <c r="L162" t="s">
+        <v>1169</v>
       </c>
       <c r="M162" s="1" t="s">
         <v>990</v>
@@ -10167,8 +11003,8 @@
       <c r="K163" s="1">
         <v>50</v>
       </c>
-      <c r="L163" s="2">
-        <v>45862.393055555556</v>
+      <c r="L163" t="s">
+        <v>1170</v>
       </c>
       <c r="M163" s="1" t="s">
         <v>990</v>
@@ -10208,8 +11044,8 @@
       <c r="K164" s="1">
         <v>27</v>
       </c>
-      <c r="L164" s="2">
-        <v>45862.402777777781</v>
+      <c r="L164" t="s">
+        <v>1171</v>
       </c>
       <c r="M164" s="1" t="s">
         <v>990</v>
@@ -10249,8 +11085,8 @@
       <c r="K165" s="1">
         <v>70</v>
       </c>
-      <c r="L165" s="2">
-        <v>45862.404861111114</v>
+      <c r="L165" t="s">
+        <v>1172</v>
       </c>
       <c r="M165" s="1" t="s">
         <v>990</v>
@@ -10290,8 +11126,8 @@
       <c r="K166" s="1">
         <v>60</v>
       </c>
-      <c r="L166" s="2">
-        <v>45862.40625</v>
+      <c r="L166" t="s">
+        <v>1173</v>
       </c>
       <c r="M166" s="1" t="s">
         <v>990</v>
@@ -10331,8 +11167,8 @@
       <c r="K167" s="1">
         <v>0</v>
       </c>
-      <c r="L167" s="2">
-        <v>45862.415277777778</v>
+      <c r="L167" t="s">
+        <v>1174</v>
       </c>
       <c r="M167" s="1" t="s">
         <v>990</v>
@@ -10372,8 +11208,8 @@
       <c r="K168" s="1">
         <v>0</v>
       </c>
-      <c r="L168" s="2">
-        <v>45862.415972222225</v>
+      <c r="L168" t="s">
+        <v>1175</v>
       </c>
       <c r="M168" s="1" t="s">
         <v>990</v>
@@ -10413,8 +11249,8 @@
       <c r="K169" s="1">
         <v>200</v>
       </c>
-      <c r="L169" s="2">
-        <v>45862.427777777775</v>
+      <c r="L169" t="s">
+        <v>1176</v>
       </c>
       <c r="M169" s="1" t="s">
         <v>990</v>
@@ -10454,8 +11290,8 @@
       <c r="K170" s="1">
         <v>250</v>
       </c>
-      <c r="L170" s="2">
-        <v>45862.43472222222</v>
+      <c r="L170" t="s">
+        <v>1177</v>
       </c>
       <c r="M170" s="1" t="s">
         <v>990</v>
@@ -10495,8 +11331,8 @@
       <c r="K171" s="1">
         <v>170</v>
       </c>
-      <c r="L171" s="2">
-        <v>45862.438888888886</v>
+      <c r="L171" t="s">
+        <v>1178</v>
       </c>
       <c r="M171" s="1" t="s">
         <v>990</v>
@@ -10536,8 +11372,8 @@
       <c r="K172" s="1">
         <v>250</v>
       </c>
-      <c r="L172" s="2">
-        <v>45862.467361111114</v>
+      <c r="L172" t="s">
+        <v>1179</v>
       </c>
       <c r="M172" s="1" t="s">
         <v>990</v>
@@ -10577,8 +11413,8 @@
       <c r="K173" s="1">
         <v>50</v>
       </c>
-      <c r="L173" s="2">
-        <v>45862.472916666666</v>
+      <c r="L173" t="s">
+        <v>1180</v>
       </c>
       <c r="M173" s="1" t="s">
         <v>990</v>
@@ -10618,8 +11454,8 @@
       <c r="K174" s="1">
         <v>0</v>
       </c>
-      <c r="L174" s="2">
-        <v>45862.472916666666</v>
+      <c r="L174" t="s">
+        <v>1180</v>
       </c>
       <c r="M174" s="1" t="s">
         <v>994</v>
@@ -10659,8 +11495,8 @@
       <c r="K175" s="1">
         <v>0</v>
       </c>
-      <c r="L175" s="2">
-        <v>45862.473611111112</v>
+      <c r="L175" t="s">
+        <v>1181</v>
       </c>
       <c r="M175" s="1" t="s">
         <v>994</v>
@@ -10700,8 +11536,8 @@
       <c r="K176" s="1">
         <v>0</v>
       </c>
-      <c r="L176" s="2">
-        <v>45862.473611111112</v>
+      <c r="L176" t="s">
+        <v>1181</v>
       </c>
       <c r="M176" s="1" t="s">
         <v>994</v>
@@ -10741,8 +11577,8 @@
       <c r="K177" s="1">
         <v>0</v>
       </c>
-      <c r="L177" s="2">
-        <v>45862.474305555559</v>
+      <c r="L177" t="s">
+        <v>1182</v>
       </c>
       <c r="M177" s="1" t="s">
         <v>994</v>
@@ -10782,8 +11618,8 @@
       <c r="K178" s="1">
         <v>0</v>
       </c>
-      <c r="L178" s="2">
-        <v>45862.474305555559</v>
+      <c r="L178" t="s">
+        <v>1182</v>
       </c>
       <c r="M178" s="1" t="s">
         <v>994</v>
@@ -10823,8 +11659,8 @@
       <c r="K179" s="1">
         <v>0</v>
       </c>
-      <c r="L179" s="2">
-        <v>45862.474305555559</v>
+      <c r="L179" t="s">
+        <v>1182</v>
       </c>
       <c r="M179" s="1" t="s">
         <v>990</v>
@@ -10864,8 +11700,8 @@
       <c r="K180" s="1">
         <v>0</v>
       </c>
-      <c r="L180" s="2">
-        <v>45862.475694444445</v>
+      <c r="L180" t="s">
+        <v>1183</v>
       </c>
       <c r="M180" s="1" t="s">
         <v>990</v>
@@ -10905,8 +11741,8 @@
       <c r="K181" s="1">
         <v>0</v>
       </c>
-      <c r="L181" s="2">
-        <v>45862.489583333336</v>
+      <c r="L181" t="s">
+        <v>1184</v>
       </c>
       <c r="M181" s="1" t="s">
         <v>990</v>
@@ -10946,8 +11782,8 @@
       <c r="K182" s="1">
         <v>30</v>
       </c>
-      <c r="L182" s="2">
-        <v>45862.502083333333</v>
+      <c r="L182" t="s">
+        <v>1185</v>
       </c>
       <c r="M182" s="1" t="s">
         <v>990</v>
@@ -10987,8 +11823,8 @@
       <c r="K183" s="1">
         <v>0</v>
       </c>
-      <c r="L183" s="2">
-        <v>45862.51458333333</v>
+      <c r="L183" t="s">
+        <v>1186</v>
       </c>
       <c r="M183" s="1" t="s">
         <v>990</v>
@@ -11028,8 +11864,8 @@
       <c r="K184" s="1">
         <v>50</v>
       </c>
-      <c r="L184" s="2">
-        <v>45862.521527777775</v>
+      <c r="L184" t="s">
+        <v>1187</v>
       </c>
       <c r="M184" s="1" t="s">
         <v>990</v>
@@ -11069,8 +11905,8 @@
       <c r="K185" s="1">
         <v>100</v>
       </c>
-      <c r="L185" s="2">
-        <v>45862.524305555555</v>
+      <c r="L185" t="s">
+        <v>1188</v>
       </c>
       <c r="M185" s="1" t="s">
         <v>990</v>
@@ -11110,8 +11946,8 @@
       <c r="K186" s="1">
         <v>50</v>
       </c>
-      <c r="L186" s="2">
-        <v>45862.548611111109</v>
+      <c r="L186" t="s">
+        <v>1189</v>
       </c>
       <c r="M186" s="1" t="s">
         <v>990</v>
@@ -11151,8 +11987,8 @@
       <c r="K187" s="1">
         <v>100</v>
       </c>
-      <c r="L187" s="2">
-        <v>45862.552083333336</v>
+      <c r="L187" t="s">
+        <v>1190</v>
       </c>
       <c r="M187" s="1" t="s">
         <v>990</v>
@@ -11192,8 +12028,8 @@
       <c r="K188" s="1">
         <v>50</v>
       </c>
-      <c r="L188" s="2">
-        <v>45862.558333333334</v>
+      <c r="L188" t="s">
+        <v>1191</v>
       </c>
       <c r="M188" s="1" t="s">
         <v>990</v>
@@ -11233,8 +12069,8 @@
       <c r="K189" s="1">
         <v>260</v>
       </c>
-      <c r="L189" s="2">
-        <v>45862.570138888892</v>
+      <c r="L189" t="s">
+        <v>1192</v>
       </c>
       <c r="M189" s="1" t="s">
         <v>990</v>
@@ -11274,8 +12110,8 @@
       <c r="K190" s="1">
         <v>100</v>
       </c>
-      <c r="L190" s="2">
-        <v>45862.575694444444</v>
+      <c r="L190" t="s">
+        <v>1193</v>
       </c>
       <c r="M190" s="1" t="s">
         <v>990</v>
@@ -11315,8 +12151,8 @@
       <c r="K191" s="1">
         <v>50</v>
       </c>
-      <c r="L191" s="2">
-        <v>45862.577777777777</v>
+      <c r="L191" t="s">
+        <v>1194</v>
       </c>
       <c r="M191" s="1" t="s">
         <v>990</v>
@@ -11356,8 +12192,8 @@
       <c r="K192" s="1">
         <v>250</v>
       </c>
-      <c r="L192" s="2">
-        <v>45862.578472222223</v>
+      <c r="L192" t="s">
+        <v>1195</v>
       </c>
       <c r="M192" s="1" t="s">
         <v>990</v>
@@ -11397,8 +12233,8 @@
       <c r="K193" s="1">
         <v>110</v>
       </c>
-      <c r="L193" s="2">
-        <v>45862.579861111109</v>
+      <c r="L193" t="s">
+        <v>1196</v>
       </c>
       <c r="M193" s="1" t="s">
         <v>990</v>
@@ -11438,8 +12274,8 @@
       <c r="K194" s="1">
         <v>50</v>
       </c>
-      <c r="L194" s="2">
-        <v>45862.581250000003</v>
+      <c r="L194" t="s">
+        <v>1197</v>
       </c>
       <c r="M194" s="1" t="s">
         <v>990</v>
@@ -11479,8 +12315,8 @@
       <c r="K195" s="1">
         <v>70</v>
       </c>
-      <c r="L195" s="2">
-        <v>45862.599305555559</v>
+      <c r="L195" t="s">
+        <v>1198</v>
       </c>
       <c r="M195" s="1" t="s">
         <v>990</v>
@@ -11520,8 +12356,8 @@
       <c r="K196" s="1">
         <v>50</v>
       </c>
-      <c r="L196" s="2">
-        <v>45862.599305555559</v>
+      <c r="L196" t="s">
+        <v>1198</v>
       </c>
       <c r="M196" s="1" t="s">
         <v>990</v>
@@ -11561,8 +12397,8 @@
       <c r="K197" s="1">
         <v>26</v>
       </c>
-      <c r="L197" s="2">
-        <v>45862.613888888889</v>
+      <c r="L197" t="s">
+        <v>1199</v>
       </c>
       <c r="M197" s="1" t="s">
         <v>990</v>
@@ -11602,8 +12438,8 @@
       <c r="K198" s="1">
         <v>200</v>
       </c>
-      <c r="L198" s="2">
-        <v>45862.642361111109</v>
+      <c r="L198" t="s">
+        <v>1200</v>
       </c>
       <c r="M198" s="1" t="s">
         <v>990</v>
@@ -11643,8 +12479,8 @@
       <c r="K199" s="1">
         <v>0</v>
       </c>
-      <c r="L199" s="2">
-        <v>45862.644444444442</v>
+      <c r="L199" t="s">
+        <v>1201</v>
       </c>
       <c r="M199" s="1" t="s">
         <v>990</v>
@@ -11684,8 +12520,8 @@
       <c r="K200" s="1">
         <v>0</v>
       </c>
-      <c r="L200" s="2">
-        <v>45862.644444444442</v>
+      <c r="L200" t="s">
+        <v>1201</v>
       </c>
       <c r="M200" s="1" t="s">
         <v>990</v>
@@ -11725,8 +12561,8 @@
       <c r="K201" s="1">
         <v>180</v>
       </c>
-      <c r="L201" s="2">
-        <v>45862.649305555555</v>
+      <c r="L201" t="s">
+        <v>1202</v>
       </c>
       <c r="M201" s="1" t="s">
         <v>990</v>
@@ -11766,8 +12602,8 @@
       <c r="K202" s="1">
         <v>200</v>
       </c>
-      <c r="L202" s="2">
-        <v>45862.656944444447</v>
+      <c r="L202" t="s">
+        <v>1203</v>
       </c>
       <c r="M202" s="1" t="s">
         <v>990</v>
@@ -11807,8 +12643,8 @@
       <c r="K203" s="1">
         <v>100</v>
       </c>
-      <c r="L203" s="2">
-        <v>45862.657638888886</v>
+      <c r="L203" t="s">
+        <v>1204</v>
       </c>
       <c r="M203" s="1" t="s">
         <v>990</v>
@@ -11848,8 +12684,8 @@
       <c r="K204" s="1">
         <v>0</v>
       </c>
-      <c r="L204" s="2">
-        <v>45862.665972222225</v>
+      <c r="L204" t="s">
+        <v>1205</v>
       </c>
       <c r="M204" s="1" t="s">
         <v>1000</v>
@@ -11889,8 +12725,8 @@
       <c r="K205" s="1">
         <v>40</v>
       </c>
-      <c r="L205" s="2">
-        <v>45862.707638888889</v>
+      <c r="L205" t="s">
+        <v>1206</v>
       </c>
       <c r="M205" s="1" t="s">
         <v>990</v>
@@ -11930,8 +12766,8 @@
       <c r="K206" s="1">
         <v>80</v>
       </c>
-      <c r="L206" s="2">
-        <v>45862.752083333333</v>
+      <c r="L206" t="s">
+        <v>1207</v>
       </c>
       <c r="M206" s="1" t="s">
         <v>990</v>
@@ -11971,8 +12807,8 @@
       <c r="K207" s="1">
         <v>120</v>
       </c>
-      <c r="L207" s="2">
-        <v>45862.763194444444</v>
+      <c r="L207" t="s">
+        <v>1208</v>
       </c>
       <c r="M207" s="1" t="s">
         <v>990</v>
@@ -12012,8 +12848,8 @@
       <c r="K208" s="1">
         <v>130</v>
       </c>
-      <c r="L208" s="2">
-        <v>45862.765277777777</v>
+      <c r="L208" t="s">
+        <v>1209</v>
       </c>
       <c r="M208" s="1" t="s">
         <v>990</v>
@@ -12053,8 +12889,8 @@
       <c r="K209" s="1">
         <v>40</v>
       </c>
-      <c r="L209" s="2">
-        <v>45862.765277777777</v>
+      <c r="L209" t="s">
+        <v>1209</v>
       </c>
       <c r="M209" s="1" t="s">
         <v>990</v>
@@ -12094,8 +12930,8 @@
       <c r="K210" s="1">
         <v>40</v>
       </c>
-      <c r="L210" s="2">
-        <v>45862.76666666667</v>
+      <c r="L210" t="s">
+        <v>1210</v>
       </c>
       <c r="M210" s="1" t="s">
         <v>990</v>
@@ -12135,8 +12971,8 @@
       <c r="K211" s="1">
         <v>15</v>
       </c>
-      <c r="L211" s="2">
-        <v>45862.76666666667</v>
+      <c r="L211" t="s">
+        <v>1210</v>
       </c>
       <c r="M211" s="1" t="s">
         <v>990</v>
@@ -12176,8 +13012,8 @@
       <c r="K212" s="1">
         <v>90</v>
       </c>
-      <c r="L212" s="2">
-        <v>45862.777083333334</v>
+      <c r="L212" t="s">
+        <v>1211</v>
       </c>
       <c r="M212" s="1" t="s">
         <v>990</v>
@@ -12217,8 +13053,8 @@
       <c r="K213" s="1">
         <v>90</v>
       </c>
-      <c r="L213" s="2">
-        <v>45862.792361111111</v>
+      <c r="L213" t="s">
+        <v>1212</v>
       </c>
       <c r="M213" s="1" t="s">
         <v>990</v>
@@ -12258,8 +13094,8 @@
       <c r="K214" s="1">
         <v>50</v>
       </c>
-      <c r="L214" s="2">
-        <v>45862.862500000003</v>
+      <c r="L214" t="s">
+        <v>1213</v>
       </c>
       <c r="M214" s="1" t="s">
         <v>990</v>
@@ -12299,8 +13135,8 @@
       <c r="K215" s="1">
         <v>110</v>
       </c>
-      <c r="L215" s="2">
-        <v>45862.863888888889</v>
+      <c r="L215" t="s">
+        <v>1214</v>
       </c>
       <c r="M215" s="1" t="s">
         <v>990</v>
@@ -12340,8 +13176,8 @@
       <c r="K216" s="1">
         <v>120</v>
       </c>
-      <c r="L216" s="2">
-        <v>45862.864583333336</v>
+      <c r="L216" t="s">
+        <v>1215</v>
       </c>
       <c r="M216" s="1" t="s">
         <v>990</v>
@@ -12381,8 +13217,8 @@
       <c r="K217" s="1">
         <v>50</v>
       </c>
-      <c r="L217" s="2">
-        <v>45862.865277777775</v>
+      <c r="L217" t="s">
+        <v>1216</v>
       </c>
       <c r="M217" s="1" t="s">
         <v>990</v>
@@ -12422,8 +13258,8 @@
       <c r="K218" s="1">
         <v>60</v>
       </c>
-      <c r="L218" s="2">
-        <v>45862.868750000001</v>
+      <c r="L218" t="s">
+        <v>1217</v>
       </c>
       <c r="M218" s="1" t="s">
         <v>990</v>
@@ -12463,8 +13299,8 @@
       <c r="K219" s="1">
         <v>150</v>
       </c>
-      <c r="L219" s="2">
-        <v>45862.869444444441</v>
+      <c r="L219" t="s">
+        <v>1218</v>
       </c>
       <c r="M219" s="1" t="s">
         <v>990</v>
@@ -12504,8 +13340,8 @@
       <c r="K220" s="1">
         <v>130</v>
       </c>
-      <c r="L220" s="2">
-        <v>45862.870138888888</v>
+      <c r="L220" t="s">
+        <v>1219</v>
       </c>
       <c r="M220" s="1" t="s">
         <v>990</v>
@@ -12545,8 +13381,8 @@
       <c r="K221" s="1">
         <v>130</v>
       </c>
-      <c r="L221" s="2">
-        <v>45862.87222222222</v>
+      <c r="L221" t="s">
+        <v>1220</v>
       </c>
       <c r="M221" s="1" t="s">
         <v>990</v>
@@ -12586,8 +13422,8 @@
       <c r="K222" s="1">
         <v>5</v>
       </c>
-      <c r="L222" s="2">
-        <v>45862.963194444441</v>
+      <c r="L222" t="s">
+        <v>1221</v>
       </c>
       <c r="M222" s="1" t="s">
         <v>990</v>
@@ -12627,8 +13463,8 @@
       <c r="K223" s="1">
         <v>100</v>
       </c>
-      <c r="L223" s="2">
-        <v>45862.997916666667</v>
+      <c r="L223" t="s">
+        <v>1222</v>
       </c>
       <c r="M223" s="1" t="s">
         <v>990</v>
@@ -12668,8 +13504,8 @@
       <c r="K224" s="1">
         <v>0</v>
       </c>
-      <c r="L224" s="2">
-        <v>45863.29583333333</v>
+      <c r="L224" t="s">
+        <v>1223</v>
       </c>
       <c r="M224" s="1" t="s">
         <v>990</v>
@@ -12709,8 +13545,8 @@
       <c r="K225" s="1">
         <v>50</v>
       </c>
-      <c r="L225" s="2">
-        <v>45863.296527777777</v>
+      <c r="L225" t="s">
+        <v>1224</v>
       </c>
       <c r="M225" s="1" t="s">
         <v>990</v>
@@ -12750,8 +13586,8 @@
       <c r="K226" s="1">
         <v>0</v>
       </c>
-      <c r="L226" s="2">
-        <v>45863.297222222223</v>
+      <c r="L226" t="s">
+        <v>1225</v>
       </c>
       <c r="M226" s="1" t="s">
         <v>990</v>
@@ -12791,8 +13627,8 @@
       <c r="K227" s="1">
         <v>50</v>
       </c>
-      <c r="L227" s="2">
-        <v>45863.298611111109</v>
+      <c r="L227" t="s">
+        <v>1226</v>
       </c>
       <c r="M227" s="1" t="s">
         <v>990</v>
@@ -12832,8 +13668,8 @@
       <c r="K228" s="1">
         <v>25</v>
       </c>
-      <c r="L228" s="2">
-        <v>45863.3</v>
+      <c r="L228" t="s">
+        <v>1227</v>
       </c>
       <c r="M228" s="1" t="s">
         <v>994</v>
@@ -12873,8 +13709,8 @@
       <c r="K229" s="1">
         <v>50</v>
       </c>
-      <c r="L229" s="2">
-        <v>45863.300694444442</v>
+      <c r="L229" t="s">
+        <v>1228</v>
       </c>
       <c r="M229" s="1" t="s">
         <v>1000</v>
@@ -12914,8 +13750,8 @@
       <c r="K230" s="1">
         <v>100</v>
       </c>
-      <c r="L230" s="2">
-        <v>45863.301388888889</v>
+      <c r="L230" t="s">
+        <v>1229</v>
       </c>
       <c r="M230" s="1" t="s">
         <v>990</v>
@@ -12955,8 +13791,8 @@
       <c r="K231" s="1">
         <v>60</v>
       </c>
-      <c r="L231" s="2">
-        <v>45863.304166666669</v>
+      <c r="L231" t="s">
+        <v>1230</v>
       </c>
       <c r="M231" s="1" t="s">
         <v>990</v>
@@ -12996,8 +13832,8 @@
       <c r="K232" s="1">
         <v>50</v>
       </c>
-      <c r="L232" s="2">
-        <v>45863.314583333333</v>
+      <c r="L232" t="s">
+        <v>1231</v>
       </c>
       <c r="M232" s="1" t="s">
         <v>990</v>
@@ -13037,8 +13873,8 @@
       <c r="K233" s="1">
         <v>100</v>
       </c>
-      <c r="L233" s="2">
-        <v>45863.322222222225</v>
+      <c r="L233" t="s">
+        <v>1232</v>
       </c>
       <c r="M233" s="1" t="s">
         <v>990</v>
@@ -13078,8 +13914,8 @@
       <c r="K234" s="1">
         <v>100</v>
       </c>
-      <c r="L234" s="2">
-        <v>45863.324305555558</v>
+      <c r="L234" t="s">
+        <v>1233</v>
       </c>
       <c r="M234" s="1" t="s">
         <v>990</v>
@@ -13119,8 +13955,8 @@
       <c r="K235" s="1">
         <v>50</v>
       </c>
-      <c r="L235" s="2">
-        <v>45863.331944444442</v>
+      <c r="L235" t="s">
+        <v>1234</v>
       </c>
       <c r="M235" s="1" t="s">
         <v>990</v>
@@ -13160,8 +13996,8 @@
       <c r="K236" s="1">
         <v>100</v>
       </c>
-      <c r="L236" s="2">
-        <v>45863.334027777775</v>
+      <c r="L236" t="s">
+        <v>1235</v>
       </c>
       <c r="M236" s="1" t="s">
         <v>990</v>
@@ -13201,8 +14037,8 @@
       <c r="K237" s="1">
         <v>75</v>
       </c>
-      <c r="L237" s="2">
-        <v>45863.334722222222</v>
+      <c r="L237" t="s">
+        <v>1236</v>
       </c>
       <c r="M237" s="1" t="s">
         <v>990</v>
@@ -13242,8 +14078,8 @@
       <c r="K238" s="1">
         <v>50</v>
       </c>
-      <c r="L238" s="2">
-        <v>45863.339583333334</v>
+      <c r="L238" t="s">
+        <v>1237</v>
       </c>
       <c r="M238" s="1" t="s">
         <v>990</v>
@@ -13283,8 +14119,8 @@
       <c r="K239" s="1">
         <v>50</v>
       </c>
-      <c r="L239" s="2">
-        <v>45863.345138888886</v>
+      <c r="L239" t="s">
+        <v>1238</v>
       </c>
       <c r="M239" s="1" t="s">
         <v>990</v>
@@ -13324,8 +14160,8 @@
       <c r="K240" s="1">
         <v>8</v>
       </c>
-      <c r="L240" s="2">
-        <v>45863.347222222219</v>
+      <c r="L240" t="s">
+        <v>1239</v>
       </c>
       <c r="M240" s="1" t="s">
         <v>990</v>
@@ -13365,8 +14201,8 @@
       <c r="K241" s="1">
         <v>30</v>
       </c>
-      <c r="L241" s="2">
-        <v>45863.349305555559</v>
+      <c r="L241" t="s">
+        <v>1240</v>
       </c>
       <c r="M241" s="1" t="s">
         <v>990</v>
@@ -13406,8 +14242,8 @@
       <c r="K242" s="1">
         <v>30</v>
       </c>
-      <c r="L242" s="2">
-        <v>45863.35</v>
+      <c r="L242" t="s">
+        <v>1241</v>
       </c>
       <c r="M242" s="1" t="s">
         <v>990</v>
@@ -13447,8 +14283,8 @@
       <c r="K243" s="1">
         <v>30</v>
       </c>
-      <c r="L243" s="2">
-        <v>45863.35</v>
+      <c r="L243" t="s">
+        <v>1241</v>
       </c>
       <c r="M243" s="1" t="s">
         <v>990</v>
@@ -13488,8 +14324,8 @@
       <c r="K244" s="1">
         <v>25</v>
       </c>
-      <c r="L244" s="2">
-        <v>45863.352083333331</v>
+      <c r="L244" t="s">
+        <v>1242</v>
       </c>
       <c r="M244" s="1" t="s">
         <v>990</v>
@@ -13529,8 +14365,8 @@
       <c r="K245" s="1">
         <v>15</v>
       </c>
-      <c r="L245" s="2">
-        <v>45863.352777777778</v>
+      <c r="L245" t="s">
+        <v>1243</v>
       </c>
       <c r="M245" s="1" t="s">
         <v>994</v>
@@ -13570,8 +14406,8 @@
       <c r="K246" s="1">
         <v>30</v>
       </c>
-      <c r="L246" s="2">
-        <v>45863.353472222225</v>
+      <c r="L246" t="s">
+        <v>1244</v>
       </c>
       <c r="M246" s="1" t="s">
         <v>990</v>
@@ -13611,8 +14447,8 @@
       <c r="K247" s="1">
         <v>40</v>
       </c>
-      <c r="L247" s="2">
-        <v>45863.356249999997</v>
+      <c r="L247" t="s">
+        <v>1245</v>
       </c>
       <c r="M247" s="1" t="s">
         <v>990</v>
@@ -13652,8 +14488,8 @@
       <c r="K248" s="1">
         <v>50</v>
       </c>
-      <c r="L248" s="2">
-        <v>45863.388194444444</v>
+      <c r="L248" t="s">
+        <v>1246</v>
       </c>
       <c r="M248" s="1" t="s">
         <v>990</v>
@@ -13693,8 +14529,8 @@
       <c r="K249" s="1">
         <v>100</v>
       </c>
-      <c r="L249" s="2">
-        <v>45863.390277777777</v>
+      <c r="L249" t="s">
+        <v>1247</v>
       </c>
       <c r="M249" s="1" t="s">
         <v>990</v>
@@ -13734,8 +14570,8 @@
       <c r="K250" s="1">
         <v>200</v>
       </c>
-      <c r="L250" s="2">
-        <v>45863.402777777781</v>
+      <c r="L250" t="s">
+        <v>1248</v>
       </c>
       <c r="M250" s="1" t="s">
         <v>990</v>
@@ -13775,8 +14611,8 @@
       <c r="K251" s="1">
         <v>200</v>
       </c>
-      <c r="L251" s="2">
-        <v>45863.408333333333</v>
+      <c r="L251" t="s">
+        <v>1249</v>
       </c>
       <c r="M251" s="1" t="s">
         <v>990</v>
@@ -13816,8 +14652,8 @@
       <c r="K252" s="1">
         <v>200</v>
       </c>
-      <c r="L252" s="2">
-        <v>45863.412499999999</v>
+      <c r="L252" t="s">
+        <v>1250</v>
       </c>
       <c r="M252" s="1" t="s">
         <v>990</v>
@@ -13857,8 +14693,8 @@
       <c r="K253" s="1">
         <v>0</v>
       </c>
-      <c r="L253" s="2">
-        <v>45863.413888888892</v>
+      <c r="L253" t="s">
+        <v>1251</v>
       </c>
       <c r="M253" s="1" t="s">
         <v>990</v>
@@ -13898,8 +14734,8 @@
       <c r="K254" s="1">
         <v>0</v>
       </c>
-      <c r="L254" s="2">
-        <v>45863.42291666667</v>
+      <c r="L254" t="s">
+        <v>1252</v>
       </c>
       <c r="M254" s="1" t="s">
         <v>990</v>
@@ -13939,8 +14775,8 @@
       <c r="K255" s="1">
         <v>40</v>
       </c>
-      <c r="L255" s="2">
-        <v>45863.427083333336</v>
+      <c r="L255" t="s">
+        <v>1253</v>
       </c>
       <c r="M255" s="1" t="s">
         <v>990</v>
@@ -13980,8 +14816,8 @@
       <c r="K256" s="1">
         <v>150</v>
       </c>
-      <c r="L256" s="2">
-        <v>45863.443749999999</v>
+      <c r="L256" t="s">
+        <v>1254</v>
       </c>
       <c r="M256" s="1" t="s">
         <v>990</v>
@@ -14021,8 +14857,8 @@
       <c r="K257" s="1">
         <v>75</v>
       </c>
-      <c r="L257" s="2">
-        <v>45863.46875</v>
+      <c r="L257" t="s">
+        <v>1255</v>
       </c>
       <c r="M257" s="1" t="s">
         <v>990</v>
@@ -14062,8 +14898,8 @@
       <c r="K258" s="1">
         <v>200</v>
       </c>
-      <c r="L258" s="2">
-        <v>45863.474999999999</v>
+      <c r="L258" t="s">
+        <v>1256</v>
       </c>
       <c r="M258" s="1" t="s">
         <v>990</v>
@@ -14103,8 +14939,8 @@
       <c r="K259" s="1" t="s">
         <v>1019</v>
       </c>
-      <c r="L259" s="2">
-        <v>45863.476388888892</v>
+      <c r="L259" t="s">
+        <v>1257</v>
       </c>
       <c r="M259" s="1" t="s">
         <v>990</v>
@@ -14144,8 +14980,8 @@
       <c r="K260" s="1">
         <v>75</v>
       </c>
-      <c r="L260" s="2">
-        <v>45863.477777777778</v>
+      <c r="L260" t="s">
+        <v>1258</v>
       </c>
       <c r="M260" s="1" t="s">
         <v>990</v>
@@ -14185,8 +15021,8 @@
       <c r="K261" s="1">
         <v>200</v>
       </c>
-      <c r="L261" s="2">
-        <v>45863.479861111111</v>
+      <c r="L261" t="s">
+        <v>1259</v>
       </c>
       <c r="M261" s="1" t="s">
         <v>990</v>
@@ -14226,8 +15062,8 @@
       <c r="K262" s="1">
         <v>200</v>
       </c>
-      <c r="L262" s="2">
-        <v>45863.481249999997</v>
+      <c r="L262" t="s">
+        <v>1260</v>
       </c>
       <c r="M262" s="1" t="s">
         <v>990</v>
@@ -14267,8 +15103,8 @@
       <c r="K263" s="1">
         <v>200</v>
       </c>
-      <c r="L263" s="2">
-        <v>45863.481249999997</v>
+      <c r="L263" t="s">
+        <v>1260</v>
       </c>
       <c r="M263" s="1" t="s">
         <v>990</v>
@@ -14308,8 +15144,8 @@
       <c r="K264" s="1">
         <v>200</v>
       </c>
-      <c r="L264" s="2">
-        <v>45863.482638888891</v>
+      <c r="L264" t="s">
+        <v>1261</v>
       </c>
       <c r="M264" s="1" t="s">
         <v>990</v>
@@ -14349,8 +15185,8 @@
       <c r="K265" s="1">
         <v>200</v>
       </c>
-      <c r="L265" s="2">
-        <v>45863.488194444442</v>
+      <c r="L265" t="s">
+        <v>1262</v>
       </c>
       <c r="M265" s="1" t="s">
         <v>990</v>
@@ -14390,8 +15226,8 @@
       <c r="K266" s="1">
         <v>4</v>
       </c>
-      <c r="L266" s="2">
-        <v>45863.488888888889</v>
+      <c r="L266" t="s">
+        <v>1263</v>
       </c>
       <c r="M266" s="1" t="s">
         <v>990</v>
@@ -14431,8 +15267,8 @@
       <c r="K267" s="1">
         <v>0</v>
       </c>
-      <c r="L267" s="2">
-        <v>45863.489583333336</v>
+      <c r="L267" t="s">
+        <v>1264</v>
       </c>
       <c r="M267" s="1" t="s">
         <v>990</v>
@@ -14472,8 +15308,8 @@
       <c r="K268" s="1">
         <v>25</v>
       </c>
-      <c r="L268" s="2">
-        <v>45863.493055555555</v>
+      <c r="L268" t="s">
+        <v>1265</v>
       </c>
       <c r="M268" s="1" t="s">
         <v>990</v>
@@ -14513,8 +15349,8 @@
       <c r="K269" s="1">
         <v>200</v>
       </c>
-      <c r="L269" s="2">
-        <v>45863.504861111112</v>
+      <c r="L269" t="s">
+        <v>1266</v>
       </c>
       <c r="M269" s="1" t="s">
         <v>990</v>
@@ -14554,8 +15390,8 @@
       <c r="K270" s="1">
         <v>50</v>
       </c>
-      <c r="L270" s="2">
-        <v>45863.508333333331</v>
+      <c r="L270" t="s">
+        <v>1267</v>
       </c>
       <c r="M270" s="1" t="s">
         <v>990</v>
@@ -14595,8 +15431,8 @@
       <c r="K271" s="1">
         <v>0</v>
       </c>
-      <c r="L271" s="2">
-        <v>45863.515277777777</v>
+      <c r="L271" t="s">
+        <v>1268</v>
       </c>
       <c r="M271" s="1" t="s">
         <v>990</v>
@@ -14636,8 +15472,8 @@
       <c r="K272" s="1">
         <v>50</v>
       </c>
-      <c r="L272" s="2">
-        <v>45863.515972222223</v>
+      <c r="L272" t="s">
+        <v>1269</v>
       </c>
       <c r="M272" s="1" t="s">
         <v>990</v>
@@ -14677,8 +15513,8 @@
       <c r="K273" s="1">
         <v>0</v>
       </c>
-      <c r="L273" s="2">
-        <v>45863.515972222223</v>
+      <c r="L273" t="s">
+        <v>1269</v>
       </c>
       <c r="M273" s="1" t="s">
         <v>990</v>
@@ -14718,8 +15554,8 @@
       <c r="K274" s="1">
         <v>109</v>
       </c>
-      <c r="L274" s="2">
-        <v>45863.529861111114</v>
+      <c r="L274" t="s">
+        <v>1270</v>
       </c>
       <c r="M274" s="1" t="s">
         <v>991</v>
@@ -14759,8 +15595,8 @@
       <c r="K275" s="1">
         <v>50</v>
       </c>
-      <c r="L275" s="2">
-        <v>45863.554166666669</v>
+      <c r="L275" t="s">
+        <v>1271</v>
       </c>
       <c r="M275" s="1" t="s">
         <v>990</v>
@@ -14800,8 +15636,8 @@
       <c r="K276" s="1">
         <v>50</v>
       </c>
-      <c r="L276" s="2">
-        <v>45863.561805555553</v>
+      <c r="L276" t="s">
+        <v>1272</v>
       </c>
       <c r="M276" s="1" t="s">
         <v>990</v>
@@ -14841,8 +15677,8 @@
       <c r="K277" s="1">
         <v>100</v>
       </c>
-      <c r="L277" s="2">
-        <v>45863.563194444447</v>
+      <c r="L277" t="s">
+        <v>1273</v>
       </c>
       <c r="M277" s="1" t="s">
         <v>990</v>
@@ -14882,8 +15718,8 @@
       <c r="K278" s="1">
         <v>15</v>
       </c>
-      <c r="L278" s="2">
-        <v>45863.572916666664</v>
+      <c r="L278" t="s">
+        <v>1274</v>
       </c>
       <c r="M278" s="1" t="s">
         <v>1000</v>
@@ -14923,8 +15759,8 @@
       <c r="K279" s="1">
         <v>150</v>
       </c>
-      <c r="L279" s="2">
-        <v>45863.598611111112</v>
+      <c r="L279" t="s">
+        <v>1275</v>
       </c>
       <c r="M279" s="1" t="s">
         <v>990</v>
@@ -14964,8 +15800,8 @@
       <c r="K280" s="1">
         <v>50</v>
       </c>
-      <c r="L280" s="2">
-        <v>45863.602083333331</v>
+      <c r="L280" t="s">
+        <v>1276</v>
       </c>
       <c r="M280" s="1" t="s">
         <v>990</v>
@@ -15005,8 +15841,8 @@
       <c r="K281" s="1">
         <v>30</v>
       </c>
-      <c r="L281" s="2">
-        <v>45863.602777777778</v>
+      <c r="L281" t="s">
+        <v>1277</v>
       </c>
       <c r="M281" s="1" t="s">
         <v>990</v>
@@ -15046,8 +15882,8 @@
       <c r="K282" s="1">
         <v>35</v>
       </c>
-      <c r="L282" s="2">
-        <v>45863.604166666664</v>
+      <c r="L282" t="s">
+        <v>1278</v>
       </c>
       <c r="M282" s="1" t="s">
         <v>990</v>
@@ -15087,8 +15923,8 @@
       <c r="K283" s="1">
         <v>0</v>
       </c>
-      <c r="L283" s="2">
-        <v>45863.607638888891</v>
+      <c r="L283" t="s">
+        <v>1279</v>
       </c>
       <c r="M283" s="1" t="s">
         <v>990</v>
@@ -15128,8 +15964,8 @@
       <c r="K284" s="1">
         <v>11</v>
       </c>
-      <c r="L284" s="2">
-        <v>45863.60833333333</v>
+      <c r="L284" t="s">
+        <v>1280</v>
       </c>
       <c r="M284" s="1" t="s">
         <v>990</v>
@@ -15169,8 +16005,8 @@
       <c r="K285" s="1">
         <v>0</v>
       </c>
-      <c r="L285" s="2">
-        <v>45863.668055555558</v>
+      <c r="L285" t="s">
+        <v>1281</v>
       </c>
       <c r="M285" s="1" t="s">
         <v>990</v>
@@ -15210,8 +16046,8 @@
       <c r="K286" s="1">
         <v>0</v>
       </c>
-      <c r="L286" s="2">
-        <v>45863.668749999997</v>
+      <c r="L286" t="s">
+        <v>1282</v>
       </c>
       <c r="M286" s="1" t="s">
         <v>990</v>
@@ -15251,8 +16087,8 @@
       <c r="K287" s="1">
         <v>25</v>
       </c>
-      <c r="L287" s="2">
-        <v>45863.749305555553</v>
+      <c r="L287" t="s">
+        <v>1283</v>
       </c>
       <c r="M287" s="1" t="s">
         <v>991</v>
@@ -15292,8 +16128,8 @@
       <c r="K288" s="1">
         <v>90</v>
       </c>
-      <c r="L288" s="2">
-        <v>45863.749305555553</v>
+      <c r="L288" t="s">
+        <v>1283</v>
       </c>
       <c r="M288" s="1" t="s">
         <v>990</v>
@@ -15333,8 +16169,8 @@
       <c r="K289" s="1">
         <v>100</v>
       </c>
-      <c r="L289" s="2">
-        <v>45863.775694444441</v>
+      <c r="L289" t="s">
+        <v>1284</v>
       </c>
       <c r="M289" s="1" t="s">
         <v>990</v>
@@ -15374,8 +16210,8 @@
       <c r="K290" s="1">
         <v>100</v>
       </c>
-      <c r="L290" s="2">
-        <v>45863.777083333334</v>
+      <c r="L290" t="s">
+        <v>1285</v>
       </c>
       <c r="M290" s="1" t="s">
         <v>990</v>
@@ -15415,8 +16251,8 @@
       <c r="K291" s="1">
         <v>90</v>
       </c>
-      <c r="L291" s="2">
-        <v>45863.779861111114</v>
+      <c r="L291" t="s">
+        <v>1286</v>
       </c>
       <c r="M291" s="1" t="s">
         <v>990</v>
@@ -15456,8 +16292,8 @@
       <c r="K292" s="1">
         <v>94</v>
       </c>
-      <c r="L292" s="2">
-        <v>45863.782638888886</v>
+      <c r="L292" t="s">
+        <v>1287</v>
       </c>
       <c r="M292" s="1" t="s">
         <v>990</v>
@@ -15497,8 +16333,8 @@
       <c r="K293" s="1">
         <v>91</v>
       </c>
-      <c r="L293" s="2">
-        <v>45863.784722222219</v>
+      <c r="L293" t="s">
+        <v>1288</v>
       </c>
       <c r="M293" s="1" t="s">
         <v>990</v>
@@ -15538,8 +16374,8 @@
       <c r="K294" s="1">
         <v>55</v>
       </c>
-      <c r="L294" s="2">
-        <v>45863.813194444447</v>
+      <c r="L294" t="s">
+        <v>1289</v>
       </c>
       <c r="M294" s="1" t="s">
         <v>990</v>
@@ -15579,8 +16415,8 @@
       <c r="K295" s="1">
         <v>90</v>
       </c>
-      <c r="L295" s="2">
-        <v>45863.813194444447</v>
+      <c r="L295" t="s">
+        <v>1289</v>
       </c>
       <c r="M295" s="1" t="s">
         <v>990</v>
@@ -15620,8 +16456,8 @@
       <c r="K296" s="1">
         <v>100</v>
       </c>
-      <c r="L296" s="2">
-        <v>45863.813888888886</v>
+      <c r="L296" t="s">
+        <v>1290</v>
       </c>
       <c r="M296" s="1" t="s">
         <v>990</v>
@@ -15661,8 +16497,8 @@
       <c r="K297" s="1">
         <v>70</v>
       </c>
-      <c r="L297" s="2">
-        <v>45863.813888888886</v>
+      <c r="L297" t="s">
+        <v>1290</v>
       </c>
       <c r="M297" s="1" t="s">
         <v>990</v>
@@ -15702,8 +16538,8 @@
       <c r="K298" s="1">
         <v>100</v>
       </c>
-      <c r="L298" s="2">
-        <v>45863.912499999999</v>
+      <c r="L298" t="s">
+        <v>1291</v>
       </c>
       <c r="M298" s="1" t="s">
         <v>990</v>
@@ -15743,8 +16579,8 @@
       <c r="K299" s="1">
         <v>19</v>
       </c>
-      <c r="L299" s="2">
-        <v>45863.932638888888</v>
+      <c r="L299" t="s">
+        <v>1292</v>
       </c>
       <c r="M299" s="1" t="s">
         <v>990</v>
@@ -15784,8 +16620,8 @@
       <c r="K300" s="1">
         <v>37</v>
       </c>
-      <c r="L300" s="2">
-        <v>45863.934027777781</v>
+      <c r="L300" t="s">
+        <v>1293</v>
       </c>
       <c r="M300" s="1" t="s">
         <v>990</v>
@@ -15825,8 +16661,8 @@
       <c r="K301" s="1">
         <v>5</v>
       </c>
-      <c r="L301" s="2">
-        <v>45863.956250000003</v>
+      <c r="L301" t="s">
+        <v>1294</v>
       </c>
       <c r="M301" s="1" t="s">
         <v>990</v>
@@ -15866,8 +16702,8 @@
       <c r="K302" s="1">
         <v>130</v>
       </c>
-      <c r="L302" s="2">
-        <v>45864.02847222222</v>
+      <c r="L302" t="s">
+        <v>1295</v>
       </c>
       <c r="M302" s="1" t="s">
         <v>990</v>
@@ -15907,8 +16743,8 @@
       <c r="K303" s="1">
         <v>3</v>
       </c>
-      <c r="L303" s="2">
-        <v>45864.029861111114</v>
+      <c r="L303" t="s">
+        <v>1296</v>
       </c>
       <c r="M303" s="1" t="s">
         <v>990</v>
@@ -15948,8 +16784,8 @@
       <c r="K304" s="1">
         <v>0</v>
       </c>
-      <c r="L304" s="2">
-        <v>45864.030555555553</v>
+      <c r="L304" t="s">
+        <v>1297</v>
       </c>
       <c r="M304" s="1" t="s">
         <v>990</v>
